--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_361.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_361.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32296-d217247-Reviews-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>134</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Diamond-Bar.h9022.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_361.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_361.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="630">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1794 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r575524549-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>32296</t>
+  </si>
+  <si>
+    <t>217247</t>
+  </si>
+  <si>
+    <t>575524549</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Best option in the area</t>
+  </si>
+  <si>
+    <t>I have to come to the Diamond Bar area every 4-6 weeks for about a week at a time for work. My first trip here I stayed at the Best Western and it was the WORST. So, this time I stayed at the Holiday Inn in Diamond Bar and I'm so much happier. 
+As many reviewers have pointed out the hotel is still undergoing renovations. They are still renovating the pool area and they might be renovating some floors/rooms but I haven't heard or seen anything during my stay in the hotel, which is great. 
+I had a Junior Suite for my 4 nights and the room was large, comfortable with a balcony and lots of plugs and outlets for a business traveler. The king bed was very comfortable and the linens were quite good, which is a big thing for me since I regularly overspend on fine bedding for my own bed. My room was at the end of the hotel and if you open the door to the patio you can definitely hear the freeway noise but the room is very well soundproofed. It's not 100% quiet and there is some white noise but I found it soothing. 
+I tried the breakfast buffet my first morning, and for $12.99, I didn't find the value. Perhaps because I came during the last 30 minutes, but the servers were not attentive. I had to wave someone down to be seated,...I have to come to the Diamond Bar area every 4-6 weeks for about a week at a time for work. My first trip here I stayed at the Best Western and it was the WORST. So, this time I stayed at the Holiday Inn in Diamond Bar and I'm so much happier. As many reviewers have pointed out the hotel is still undergoing renovations. They are still renovating the pool area and they might be renovating some floors/rooms but I haven't heard or seen anything during my stay in the hotel, which is great. I had a Junior Suite for my 4 nights and the room was large, comfortable with a balcony and lots of plugs and outlets for a business traveler. The king bed was very comfortable and the linens were quite good, which is a big thing for me since I regularly overspend on fine bedding for my own bed. My room was at the end of the hotel and if you open the door to the patio you can definitely hear the freeway noise but the room is very well soundproofed. It's not 100% quiet and there is some white noise but I found it soothing. I tried the breakfast buffet my first morning, and for $12.99, I didn't find the value. Perhaps because I came during the last 30 minutes, but the servers were not attentive. I had to wave someone down to be seated, to get juice, to get condiments, etc. Everything seemed to have been made fresh, scrambled eggs, crispy bacon, fried potatoes with peppers and onions and pancakes, but everything was barely lukewarm or outright cold. I skipped it the rest of my stay. I did however order some fish &amp; pub chips from room service. It came in 20 minutes, was hot and well made. The fish was well battered and fried and came with great malt vinegar and a dill tartar sauce I really liked. My only issue is that if they say pub chips, I'm expecting like English chips, you know? Like, french fries, but these were just chips. I think they need to clarify that on the menu. I was a bit disappointed but I still ate it and it was fine. I used the fitness center during my stay and the equipment was all fairly new and the A/C worked well. They had towels for you to use there as well but the water dispenser was empty and dirty looking. This will be my go to hotel when I need to come out to Diamond Bar so I hope it continues to meet my expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>I have to come to the Diamond Bar area every 4-6 weeks for about a week at a time for work. My first trip here I stayed at the Best Western and it was the WORST. So, this time I stayed at the Holiday Inn in Diamond Bar and I'm so much happier. 
+As many reviewers have pointed out the hotel is still undergoing renovations. They are still renovating the pool area and they might be renovating some floors/rooms but I haven't heard or seen anything during my stay in the hotel, which is great. 
+I had a Junior Suite for my 4 nights and the room was large, comfortable with a balcony and lots of plugs and outlets for a business traveler. The king bed was very comfortable and the linens were quite good, which is a big thing for me since I regularly overspend on fine bedding for my own bed. My room was at the end of the hotel and if you open the door to the patio you can definitely hear the freeway noise but the room is very well soundproofed. It's not 100% quiet and there is some white noise but I found it soothing. 
+I tried the breakfast buffet my first morning, and for $12.99, I didn't find the value. Perhaps because I came during the last 30 minutes, but the servers were not attentive. I had to wave someone down to be seated,...I have to come to the Diamond Bar area every 4-6 weeks for about a week at a time for work. My first trip here I stayed at the Best Western and it was the WORST. So, this time I stayed at the Holiday Inn in Diamond Bar and I'm so much happier. As many reviewers have pointed out the hotel is still undergoing renovations. They are still renovating the pool area and they might be renovating some floors/rooms but I haven't heard or seen anything during my stay in the hotel, which is great. I had a Junior Suite for my 4 nights and the room was large, comfortable with a balcony and lots of plugs and outlets for a business traveler. The king bed was very comfortable and the linens were quite good, which is a big thing for me since I regularly overspend on fine bedding for my own bed. My room was at the end of the hotel and if you open the door to the patio you can definitely hear the freeway noise but the room is very well soundproofed. It's not 100% quiet and there is some white noise but I found it soothing. I tried the breakfast buffet my first morning, and for $12.99, I didn't find the value. Perhaps because I came during the last 30 minutes, but the servers were not attentive. I had to wave someone down to be seated, to get juice, to get condiments, etc. Everything seemed to have been made fresh, scrambled eggs, crispy bacon, fried potatoes with peppers and onions and pancakes, but everything was barely lukewarm or outright cold. I skipped it the rest of my stay. I did however order some fish &amp; pub chips from room service. It came in 20 minutes, was hot and well made. The fish was well battered and fried and came with great malt vinegar and a dill tartar sauce I really liked. My only issue is that if they say pub chips, I'm expecting like English chips, you know? Like, french fries, but these were just chips. I think they need to clarify that on the menu. I was a bit disappointed but I still ate it and it was fine. I used the fitness center during my stay and the equipment was all fairly new and the A/C worked well. They had towels for you to use there as well but the water dispenser was empty and dirty looking. This will be my go to hotel when I need to come out to Diamond Bar so I hope it continues to meet my expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r574972983-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>574972983</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Again, so so</t>
+  </si>
+  <si>
+    <t>This is my second time staying here. The first time, they were under construction.  This time no excuses. The hallways smelled and the room smelled. Kinda like a sewer. Small desk in the room makes it hard to do any work. Seat with ottoman is hard as a rock. You can open the window, but......there is another window, no screen.  Have to rely on the HVAC for ventilation.  No fresh air. Breakfast buffet was cold and both mornings they were out of coffee and it took another 10 minutes before it was ready. Large parking lot.   If it was not so close to my office I'm not sure I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>This is my second time staying here. The first time, they were under construction.  This time no excuses. The hallways smelled and the room smelled. Kinda like a sewer. Small desk in the room makes it hard to do any work. Seat with ottoman is hard as a rock. You can open the window, but......there is another window, no screen.  Have to rely on the HVAC for ventilation.  No fresh air. Breakfast buffet was cold and both mornings they were out of coffee and it took another 10 minutes before it was ready. Large parking lot.   If it was not so close to my office I'm not sure I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r559913706-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>559913706</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>Booked a 2-queen-bed room for an overnight stay for a gathering I was attending nearby with my mom and sis. Got a phone call couple days prior that they didn't have the room for me because my default choice was one-king, they could only upgrade me to a suite with a pull-out, I didn't want to be difficult so I accepted itI could not think of anything good about the hotel - elevators are small and dated and slow, very limited amenities, shower was very awkwardly designed where the control is 5ft away from the showerheadBreakfast was way overpriced and was terrible. I wasn't told that it's not complimentary when my mom already grabbed food into the plate, my bad and I paid for my mistake. They constantly ran out of utensils and coffee cup and food and they ran out of milk at 9:30 in the morning, what?!I rarely came across a chain hotel that I had nothing good to tell and this hotel just managed to make it to the listMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Booked a 2-queen-bed room for an overnight stay for a gathering I was attending nearby with my mom and sis. Got a phone call couple days prior that they didn't have the room for me because my default choice was one-king, they could only upgrade me to a suite with a pull-out, I didn't want to be difficult so I accepted itI could not think of anything good about the hotel - elevators are small and dated and slow, very limited amenities, shower was very awkwardly designed where the control is 5ft away from the showerheadBreakfast was way overpriced and was terrible. I wasn't told that it's not complimentary when my mom already grabbed food into the plate, my bad and I paid for my mistake. They constantly ran out of utensils and coffee cup and food and they ran out of milk at 9:30 in the morning, what?!I rarely came across a chain hotel that I had nothing good to tell and this hotel just managed to make it to the listMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r538641485-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>538641485</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>My Rating Still Stands</t>
+  </si>
+  <si>
+    <t>My initial review of the hotel was prior to my visit to the hotel; however, my rating still stands (and wish it could be even less), due to the fact that the actual experience during my stay at the hotel was even worse than my experience before  checking in.  To date, as promised, I have not returned to the hotel, and have found excellent customer service with Holiday Inn's competitors that start with an "S" down the freeway in Pomona.The sad part about my stay, is that it was so horrendous, that I contacted the corporate office of Holiday Inn  to complain, because it involved among other things, the hotel charging a credit card that I never gave them authorization to do so, and then lieing to me, and saying they never did .  The corporate office wrote me 2 emails advising that they would investigate my incident, and in the end, never did, and never followed back up with me, after promising they would. So goes the saying, "Leadership rises and falls from the top".  If the leadership doesn't care, neither will the employees.  So trueMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>My initial review of the hotel was prior to my visit to the hotel; however, my rating still stands (and wish it could be even less), due to the fact that the actual experience during my stay at the hotel was even worse than my experience before  checking in.  To date, as promised, I have not returned to the hotel, and have found excellent customer service with Holiday Inn's competitors that start with an "S" down the freeway in Pomona.The sad part about my stay, is that it was so horrendous, that I contacted the corporate office of Holiday Inn  to complain, because it involved among other things, the hotel charging a credit card that I never gave them authorization to do so, and then lieing to me, and saying they never did .  The corporate office wrote me 2 emails advising that they would investigate my incident, and in the end, never did, and never followed back up with me, after promising they would. So goes the saying, "Leadership rises and falls from the top".  If the leadership doesn't care, neither will the employees.  So trueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r533457222-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>533457222</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Good service even during renovation</t>
+  </si>
+  <si>
+    <t>I stay here at least 40 nights a year for my regular visits to my home office and the staff is always friendly and helpful.  They renovation is still a few months from being complete but so far upgrades to beds and bathroom have been nice.  Lots of extra USB plugs and power plugs for chargers.  My rate includes the breakfast and the food is always fresh and coffee hot.  It is nice to have a bar where we can drink and not drive and barkeep knows my favorite "poison".  Make sure to ask for a parking lot side room as freeway side can be noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>I stay here at least 40 nights a year for my regular visits to my home office and the staff is always friendly and helpful.  They renovation is still a few months from being complete but so far upgrades to beds and bathroom have been nice.  Lots of extra USB plugs and power plugs for chargers.  My rate includes the breakfast and the food is always fresh and coffee hot.  It is nice to have a bar where we can drink and not drive and barkeep knows my favorite "poison".  Make sure to ask for a parking lot side room as freeway side can be noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r524238243-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>524238243</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Great Renovations in a Great Location</t>
+  </si>
+  <si>
+    <t>If you had been turned off by this hotel's age, good news!  It is undergoing extensive renovations, and the newly renovated rooms are great!  It also has an excellent staff, and, of course, a great location at the juncture of the 57 and 60 freeways that offers quick and easy access to Orange County, the Pomona Valley, and the San Gabriel Valley.  The renovations are presently underway, so expect some disrupted services (hence the only "Average" review at this time).  When the renovations are complete, however, this could be a "Very Good" or "Excellent" hotel.  Some rooms are already done, and they are fresh, comfortable, and modern.  I had a junior suite with a small balcony that overlooked the criss-crossing freeways.  They could have done a better job at soundproofing, as there was some noise from the freeways.  It didn't really bother me, however.  If you are bothered by that sort of thing, request a room on a high floor or facing away from the freeways.  I liked the view from my room, however, with the valley below.  The room was well-appointed with a very, very comfortable bed.  I was not much disturbed or inconvenienced by the renovations, so I wouldn't hesitate to stay now unless you are likely to be disturbed by such things.  I didn't hear hardly any renovation-related noise.  I DID, however, experience noise from the neighboring room, with which my room shared a adjoining door.  The...If you had been turned off by this hotel's age, good news!  It is undergoing extensive renovations, and the newly renovated rooms are great!  It also has an excellent staff, and, of course, a great location at the juncture of the 57 and 60 freeways that offers quick and easy access to Orange County, the Pomona Valley, and the San Gabriel Valley.  The renovations are presently underway, so expect some disrupted services (hence the only "Average" review at this time).  When the renovations are complete, however, this could be a "Very Good" or "Excellent" hotel.  Some rooms are already done, and they are fresh, comfortable, and modern.  I had a junior suite with a small balcony that overlooked the criss-crossing freeways.  They could have done a better job at soundproofing, as there was some noise from the freeways.  It didn't really bother me, however.  If you are bothered by that sort of thing, request a room on a high floor or facing away from the freeways.  I liked the view from my room, however, with the valley below.  The room was well-appointed with a very, very comfortable bed.  I was not much disturbed or inconvenienced by the renovations, so I wouldn't hesitate to stay now unless you are likely to be disturbed by such things.  I didn't hear hardly any renovation-related noise.  I DID, however, experience noise from the neighboring room, with which my room shared a adjoining door.  The new walls are either way too thin, or it was because of the adjoining door.  I don't know which.  It is disappointing that a newly renovated hotel isn't soundproofed better.  Request a room without an adjoining door to be safe. The management should look into better soundproofing.  Otherwise, this is shaping up to be a very good modern HI, and I can't say enough about the excellent staff, housekeeping included.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>If you had been turned off by this hotel's age, good news!  It is undergoing extensive renovations, and the newly renovated rooms are great!  It also has an excellent staff, and, of course, a great location at the juncture of the 57 and 60 freeways that offers quick and easy access to Orange County, the Pomona Valley, and the San Gabriel Valley.  The renovations are presently underway, so expect some disrupted services (hence the only "Average" review at this time).  When the renovations are complete, however, this could be a "Very Good" or "Excellent" hotel.  Some rooms are already done, and they are fresh, comfortable, and modern.  I had a junior suite with a small balcony that overlooked the criss-crossing freeways.  They could have done a better job at soundproofing, as there was some noise from the freeways.  It didn't really bother me, however.  If you are bothered by that sort of thing, request a room on a high floor or facing away from the freeways.  I liked the view from my room, however, with the valley below.  The room was well-appointed with a very, very comfortable bed.  I was not much disturbed or inconvenienced by the renovations, so I wouldn't hesitate to stay now unless you are likely to be disturbed by such things.  I didn't hear hardly any renovation-related noise.  I DID, however, experience noise from the neighboring room, with which my room shared a adjoining door.  The...If you had been turned off by this hotel's age, good news!  It is undergoing extensive renovations, and the newly renovated rooms are great!  It also has an excellent staff, and, of course, a great location at the juncture of the 57 and 60 freeways that offers quick and easy access to Orange County, the Pomona Valley, and the San Gabriel Valley.  The renovations are presently underway, so expect some disrupted services (hence the only "Average" review at this time).  When the renovations are complete, however, this could be a "Very Good" or "Excellent" hotel.  Some rooms are already done, and they are fresh, comfortable, and modern.  I had a junior suite with a small balcony that overlooked the criss-crossing freeways.  They could have done a better job at soundproofing, as there was some noise from the freeways.  It didn't really bother me, however.  If you are bothered by that sort of thing, request a room on a high floor or facing away from the freeways.  I liked the view from my room, however, with the valley below.  The room was well-appointed with a very, very comfortable bed.  I was not much disturbed or inconvenienced by the renovations, so I wouldn't hesitate to stay now unless you are likely to be disturbed by such things.  I didn't hear hardly any renovation-related noise.  I DID, however, experience noise from the neighboring room, with which my room shared a adjoining door.  The new walls are either way too thin, or it was because of the adjoining door.  I don't know which.  It is disappointing that a newly renovated hotel isn't soundproofed better.  Request a room without an adjoining door to be safe. The management should look into better soundproofing.  Otherwise, this is shaping up to be a very good modern HI, and I can't say enough about the excellent staff, housekeeping included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r494989758-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>494989758</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Staying here before and after the renovation will be worth it!</t>
+  </si>
+  <si>
+    <t>We came to this hotel because of a softball tournament in Chino HIlls.  I was initially a little bit worried about how it would go because it said on the website that they were undergoing renovations - though only during the week. Still, that can cause some things to function differently than usual, so again - I was just slightly hesitant. SILLY ME!  We had a wonderful time at this hotel, everything was exactly as we'd hope for and the upgrades are worth it!
+I'm thinking we got one of the newly renovated rooms (seems they're going 1 floor at a time). 1st of all - they've done a great job keeping the renovations away from your hotel stay. The elevators say "Don't get off on X floor" there is a guard posted at that floor should the button get pushed by accident. There is no way you'll accidentally wander somewhere you shouldn't.   So back to our room! We had 2 double beds with BRAND NEW mattresses!  (only thing is, they need to tack it to the bed frame as mine slid when I'd try to get in or out of bed - yeah, I'm short!).  They are SO comfortable!  The pillow cases are embroidered "Soft" or "Hard" so it's easy to find your preference. 
+The fridge was large enough to chill all of our gatorade, water and double shot espressos (it was going to be a long, hot weekend)....We came to this hotel because of a softball tournament in Chino HIlls.  I was initially a little bit worried about how it would go because it said on the website that they were undergoing renovations - though only during the week. Still, that can cause some things to function differently than usual, so again - I was just slightly hesitant. SILLY ME!  We had a wonderful time at this hotel, everything was exactly as we'd hope for and the upgrades are worth it!I'm thinking we got one of the newly renovated rooms (seems they're going 1 floor at a time). 1st of all - they've done a great job keeping the renovations away from your hotel stay. The elevators say "Don't get off on X floor" there is a guard posted at that floor should the button get pushed by accident. There is no way you'll accidentally wander somewhere you shouldn't.   So back to our room! We had 2 double beds with BRAND NEW mattresses!  (only thing is, they need to tack it to the bed frame as mine slid when I'd try to get in or out of bed - yeah, I'm short!).  They are SO comfortable!  The pillow cases are embroidered "Soft" or "Hard" so it's easy to find your preference. The fridge was large enough to chill all of our gatorade, water and double shot espressos (it was going to be a long, hot weekend). The shower was really nice and large with shelves to hold all your toiletries but that don't get in the way. Water pressure and temperature was good, and the drain was cool. The carpets and linens (and room as a whole) all felt clean!We had breakfast and a night cap in the hotel. We had a complimentary (due to the inconvenience of the construction) brownie with a glass of milk (for the softball player) and a glass of wine (for me) and took it back to our room to binge-watch cable tv.  Breakfast was a buffet with a lot of selections!  We got there first thing and everything was hot, fresh, and delicious!  All of the staff we encountered were super friendly. ESPECIALLY the ones who I talked to twice in one night before we arrived when I cancelled the 1st night of our stay, then immediately added it back on!  Patient and smiling!  I'd return to this location and truly, it raised the bar as far as my overall expectations for the brand!  We're staying in another in a few weeks - looking forward to it!  Of course, I became an IHG Rewards member.#HolidayInn #Hotel #MakesMeWanderMoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday B, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>We came to this hotel because of a softball tournament in Chino HIlls.  I was initially a little bit worried about how it would go because it said on the website that they were undergoing renovations - though only during the week. Still, that can cause some things to function differently than usual, so again - I was just slightly hesitant. SILLY ME!  We had a wonderful time at this hotel, everything was exactly as we'd hope for and the upgrades are worth it!
+I'm thinking we got one of the newly renovated rooms (seems they're going 1 floor at a time). 1st of all - they've done a great job keeping the renovations away from your hotel stay. The elevators say "Don't get off on X floor" there is a guard posted at that floor should the button get pushed by accident. There is no way you'll accidentally wander somewhere you shouldn't.   So back to our room! We had 2 double beds with BRAND NEW mattresses!  (only thing is, they need to tack it to the bed frame as mine slid when I'd try to get in or out of bed - yeah, I'm short!).  They are SO comfortable!  The pillow cases are embroidered "Soft" or "Hard" so it's easy to find your preference. 
+The fridge was large enough to chill all of our gatorade, water and double shot espressos (it was going to be a long, hot weekend)....We came to this hotel because of a softball tournament in Chino HIlls.  I was initially a little bit worried about how it would go because it said on the website that they were undergoing renovations - though only during the week. Still, that can cause some things to function differently than usual, so again - I was just slightly hesitant. SILLY ME!  We had a wonderful time at this hotel, everything was exactly as we'd hope for and the upgrades are worth it!I'm thinking we got one of the newly renovated rooms (seems they're going 1 floor at a time). 1st of all - they've done a great job keeping the renovations away from your hotel stay. The elevators say "Don't get off on X floor" there is a guard posted at that floor should the button get pushed by accident. There is no way you'll accidentally wander somewhere you shouldn't.   So back to our room! We had 2 double beds with BRAND NEW mattresses!  (only thing is, they need to tack it to the bed frame as mine slid when I'd try to get in or out of bed - yeah, I'm short!).  They are SO comfortable!  The pillow cases are embroidered "Soft" or "Hard" so it's easy to find your preference. The fridge was large enough to chill all of our gatorade, water and double shot espressos (it was going to be a long, hot weekend). The shower was really nice and large with shelves to hold all your toiletries but that don't get in the way. Water pressure and temperature was good, and the drain was cool. The carpets and linens (and room as a whole) all felt clean!We had breakfast and a night cap in the hotel. We had a complimentary (due to the inconvenience of the construction) brownie with a glass of milk (for the softball player) and a glass of wine (for me) and took it back to our room to binge-watch cable tv.  Breakfast was a buffet with a lot of selections!  We got there first thing and everything was hot, fresh, and delicious!  All of the staff we encountered were super friendly. ESPECIALLY the ones who I talked to twice in one night before we arrived when I cancelled the 1st night of our stay, then immediately added it back on!  Patient and smiling!  I'd return to this location and truly, it raised the bar as far as my overall expectations for the brand!  We're staying in another in a few weeks - looking forward to it!  Of course, I became an IHG Rewards member.#HolidayInn #Hotel #MakesMeWanderMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r490009184-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>490009184</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Under Construction but Very Manageable</t>
+  </si>
+  <si>
+    <t>I had a recent visit to the area for personal matter and stayed at the Holiday Inn Select in Diamond Bar.  This hotel was booked online but did not offer some important information online.  Fortunately, the hotel called me to verify my requirements and explained the hotel was undergoing renovation during my stay.    She explained the three upper floors were complete but the construction was ongoing.  The rooms were completely gutted and updated.  I asked for the sixth floor and was able to have my desire granted.  As I said, the rooms have been tastefully upgraded with a brand new mattress.   The only drawback was the noise of the freeway below.Try to get a room away from roadway side because the freeway is also under construction and the truck downshifting made a ton of noise.  The restaurant on premises was fair but the cocktails were generous and well made.  Breakfast is not included and very pricey.  The hotel staff was very friendly, courteous and helpful.  They  recommended some good local eateries and went the extra mile to make one very welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>I had a recent visit to the area for personal matter and stayed at the Holiday Inn Select in Diamond Bar.  This hotel was booked online but did not offer some important information online.  Fortunately, the hotel called me to verify my requirements and explained the hotel was undergoing renovation during my stay.    She explained the three upper floors were complete but the construction was ongoing.  The rooms were completely gutted and updated.  I asked for the sixth floor and was able to have my desire granted.  As I said, the rooms have been tastefully upgraded with a brand new mattress.   The only drawback was the noise of the freeway below.Try to get a room away from roadway side because the freeway is also under construction and the truck downshifting made a ton of noise.  The restaurant on premises was fair but the cocktails were generous and well made.  Breakfast is not included and very pricey.  The hotel staff was very friendly, courteous and helpful.  They  recommended some good local eateries and went the extra mile to make one very welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r488571759-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>488571759</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was immaculate and service was exceptional </t>
+  </si>
+  <si>
+    <t>This room was great in so many ways. First, the beds were on the firm side which I love. It had a fridge which should be standard in every hotel room in America. And the shower was beautiful, but wish it had better water pressure. Actually the water pressure is the only thing I can think of that I can ding this room for. Even then it was definitely bearable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>This room was great in so many ways. First, the beds were on the firm side which I love. It had a fridge which should be standard in every hotel room in America. And the shower was beautiful, but wish it had better water pressure. Actually the water pressure is the only thing I can think of that I can ding this room for. Even then it was definitely bearable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r470605579-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>470605579</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be nice when finished </t>
+  </si>
+  <si>
+    <t>Stayed at the hotel from March 23rd to the 26th as a chaperone for a high school band trip. Arrived late on the 23rd close to midnight and was promptly checked in which was great for having 58 kids and 9 chaperones. Was told breakfast started at 6 and it was ready with scrambled eggs, home fries with peppers and onions, bacon and sausage. There was a waffle maker and hot oatmeal, melon cubes and bananas, milk and juice and coffee or hot water for tea. Every was great and the gentleman that was in charge was going out of his way to make thing pleasant which is a task with 58 kids wandering in plus the other guests. With 58 kids and 2 somewhat working elevators was a challenge and with the stairwell flooded added to the challenge we managed to keep with our schedule. The rooms were nice, I was on the 2nd floor which has not been renovated yet but the rooms that were are very nice and modern looking with double pain windows to muffle the road noise if you are staying on the freeway side. My room was on the freeway side with single pain windows and there was a difference in sound, they supply ear plugs found in the closet to use which helped. The beds were comfortable with 4 soft pillows and soft sheets. The bathroom has a tub/shower combo but the new...Stayed at the hotel from March 23rd to the 26th as a chaperone for a high school band trip. Arrived late on the 23rd close to midnight and was promptly checked in which was great for having 58 kids and 9 chaperones. Was told breakfast started at 6 and it was ready with scrambled eggs, home fries with peppers and onions, bacon and sausage. There was a waffle maker and hot oatmeal, melon cubes and bananas, milk and juice and coffee or hot water for tea. Every was great and the gentleman that was in charge was going out of his way to make thing pleasant which is a task with 58 kids wandering in plus the other guests. With 58 kids and 2 somewhat working elevators was a challenge and with the stairwell flooded added to the challenge we managed to keep with our schedule. The rooms were nice, I was on the 2nd floor which has not been renovated yet but the rooms that were are very nice and modern looking with double pain windows to muffle the road noise if you are staying on the freeway side. My room was on the freeway side with single pain windows and there was a difference in sound, they supply ear plugs found in the closet to use which helped. The beds were comfortable with 4 soft pillows and soft sheets. The bathroom has a tub/shower combo but the new rooms have just a shower, the vanity is outside the bathroom and the amenities were nice. The location is ideal for getting around Los Angeles and is near shopping centers and restaurants. I gave it a 3 rating mainly because of the construction issues but will be better when done. Thank you for the great stay thanks in part to the staff for their above and beyond help. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel from March 23rd to the 26th as a chaperone for a high school band trip. Arrived late on the 23rd close to midnight and was promptly checked in which was great for having 58 kids and 9 chaperones. Was told breakfast started at 6 and it was ready with scrambled eggs, home fries with peppers and onions, bacon and sausage. There was a waffle maker and hot oatmeal, melon cubes and bananas, milk and juice and coffee or hot water for tea. Every was great and the gentleman that was in charge was going out of his way to make thing pleasant which is a task with 58 kids wandering in plus the other guests. With 58 kids and 2 somewhat working elevators was a challenge and with the stairwell flooded added to the challenge we managed to keep with our schedule. The rooms were nice, I was on the 2nd floor which has not been renovated yet but the rooms that were are very nice and modern looking with double pain windows to muffle the road noise if you are staying on the freeway side. My room was on the freeway side with single pain windows and there was a difference in sound, they supply ear plugs found in the closet to use which helped. The beds were comfortable with 4 soft pillows and soft sheets. The bathroom has a tub/shower combo but the new...Stayed at the hotel from March 23rd to the 26th as a chaperone for a high school band trip. Arrived late on the 23rd close to midnight and was promptly checked in which was great for having 58 kids and 9 chaperones. Was told breakfast started at 6 and it was ready with scrambled eggs, home fries with peppers and onions, bacon and sausage. There was a waffle maker and hot oatmeal, melon cubes and bananas, milk and juice and coffee or hot water for tea. Every was great and the gentleman that was in charge was going out of his way to make thing pleasant which is a task with 58 kids wandering in plus the other guests. With 58 kids and 2 somewhat working elevators was a challenge and with the stairwell flooded added to the challenge we managed to keep with our schedule. The rooms were nice, I was on the 2nd floor which has not been renovated yet but the rooms that were are very nice and modern looking with double pain windows to muffle the road noise if you are staying on the freeway side. My room was on the freeway side with single pain windows and there was a difference in sound, they supply ear plugs found in the closet to use which helped. The beds were comfortable with 4 soft pillows and soft sheets. The bathroom has a tub/shower combo but the new rooms have just a shower, the vanity is outside the bathroom and the amenities were nice. The location is ideal for getting around Los Angeles and is near shopping centers and restaurants. I gave it a 3 rating mainly because of the construction issues but will be better when done. Thank you for the great stay thanks in part to the staff for their above and beyond help. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r462587950-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>462587950</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Remodeling may be an excuse, but this was really bad</t>
+  </si>
+  <si>
+    <t>This is now a Holiday Inn Select? Maybe you should select a different Hotel. I had reservations for a king room in a non-smoking Hotel. When I got to my room I was in a double that reek of cigarette smoke. The website warned of possible construction noise but said nothing about having to sleep on smoking floors. There was even a sign just outside the elevator on our floor that said the state of California considered the floor possibly dangerous to one's health. The top two floors were closed for construction. I went down to the front desk asking for a non-smoking room and was told she was sorry all she had were smoking floors. She moved me to a King room next door but it was only slightly better. I don't blame her for not calling to see if my second room was any better. I'm sure she knew it wasn't. Besides the cigarette smell, the desk chair dropped to the floor when you sat on it. The comfy chair was anything but. I found it interesting that one might need the eye mask and earplugs provided in the room . It was a miserable night on a very noisy Highway. The breakfast buffet was totally lacking and I really can't think of anything good to say about my visit. If you know me by my reviews you know it is very rare that I say things negative...This is now a Holiday Inn Select? Maybe you should select a different Hotel. I had reservations for a king room in a non-smoking Hotel. When I got to my room I was in a double that reek of cigarette smoke. The website warned of possible construction noise but said nothing about having to sleep on smoking floors. There was even a sign just outside the elevator on our floor that said the state of California considered the floor possibly dangerous to one's health. The top two floors were closed for construction. I went down to the front desk asking for a non-smoking room and was told she was sorry all she had were smoking floors. She moved me to a King room next door but it was only slightly better. I don't blame her for not calling to see if my second room was any better. I'm sure she knew it wasn't. Besides the cigarette smell, the desk chair dropped to the floor when you sat on it. The comfy chair was anything but. I found it interesting that one might need the eye mask and earplugs provided in the room . It was a miserable night on a very noisy Highway. The breakfast buffet was totally lacking and I really can't think of anything good to say about my visit. If you know me by my reviews you know it is very rare that I say things negative but this property deserves it. Keep away until the property deserves the Holiday Inn Select status.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>This is now a Holiday Inn Select? Maybe you should select a different Hotel. I had reservations for a king room in a non-smoking Hotel. When I got to my room I was in a double that reek of cigarette smoke. The website warned of possible construction noise but said nothing about having to sleep on smoking floors. There was even a sign just outside the elevator on our floor that said the state of California considered the floor possibly dangerous to one's health. The top two floors were closed for construction. I went down to the front desk asking for a non-smoking room and was told she was sorry all she had were smoking floors. She moved me to a King room next door but it was only slightly better. I don't blame her for not calling to see if my second room was any better. I'm sure she knew it wasn't. Besides the cigarette smell, the desk chair dropped to the floor when you sat on it. The comfy chair was anything but. I found it interesting that one might need the eye mask and earplugs provided in the room . It was a miserable night on a very noisy Highway. The breakfast buffet was totally lacking and I really can't think of anything good to say about my visit. If you know me by my reviews you know it is very rare that I say things negative...This is now a Holiday Inn Select? Maybe you should select a different Hotel. I had reservations for a king room in a non-smoking Hotel. When I got to my room I was in a double that reek of cigarette smoke. The website warned of possible construction noise but said nothing about having to sleep on smoking floors. There was even a sign just outside the elevator on our floor that said the state of California considered the floor possibly dangerous to one's health. The top two floors were closed for construction. I went down to the front desk asking for a non-smoking room and was told she was sorry all she had were smoking floors. She moved me to a King room next door but it was only slightly better. I don't blame her for not calling to see if my second room was any better. I'm sure she knew it wasn't. Besides the cigarette smell, the desk chair dropped to the floor when you sat on it. The comfy chair was anything but. I found it interesting that one might need the eye mask and earplugs provided in the room . It was a miserable night on a very noisy Highway. The breakfast buffet was totally lacking and I really can't think of anything good to say about my visit. If you know me by my reviews you know it is very rare that I say things negative but this property deserves it. Keep away until the property deserves the Holiday Inn Select status.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r457489998-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>457489998</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Need some modernization or upgrade</t>
+  </si>
+  <si>
+    <t>The hotel is on top of the hill overlooking the freeway. It was undergoing some kind of renovation and some floors are closed. The front desk clerk was cheerful and efficient. The place was clean and quiet and you wouldn't know that there's some work going on. The room was clean and spacious but I think it could use some modernization. There was the usual coffeemaker and a small refrigerator. The hotel also provided free Wi-Fi and also an in-house diner/grill There's several restaurants very near the hotel. I wouldn't mind going back once the work is done. I'm sure that the hotel will be one of the best in Diamond BarMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is on top of the hill overlooking the freeway. It was undergoing some kind of renovation and some floors are closed. The front desk clerk was cheerful and efficient. The place was clean and quiet and you wouldn't know that there's some work going on. The room was clean and spacious but I think it could use some modernization. There was the usual coffeemaker and a small refrigerator. The hotel also provided free Wi-Fi and also an in-house diner/grill There's several restaurants very near the hotel. I wouldn't mind going back once the work is done. I'm sure that the hotel will be one of the best in Diamond BarMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r431649598-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>431649598</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>A fairly new looking property</t>
+  </si>
+  <si>
+    <t>The property looks newer on the outside than it does on the inside. Check in was fast and very pleasant, except for being given a room that was not cleaned. But they got me a new room real quick.  Room service meal was ok. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>The property looks newer on the outside than it does on the inside. Check in was fast and very pleasant, except for being given a room that was not cleaned. But they got me a new room real quick.  Room service meal was ok. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r414271981-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>414271981</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We were only here for a night, and it was a budget hotel, so we got what we expected, as far as comfort and cleanliness went. The location was fine - it was close to the venue we were visiting, and within easy driving distance of restaurants and things like Target and Starbucks. 
+Our check-in experience left a lot to be desired. I don't need overly bubbly, fake-friendly staff, but would it kill you to crack a smile, or at least pretend to be interested in the people checking in? Or, you know, stop your non-work-related conversation with the maintenance guy long enough to even acknowledge that we're standing there?
+The room itself was fine - clean-ish and large. It had an arm chair and a desk, along with a fridge (which we used while we were there - it was hot as balls!) The WiFi was free, but it was also very slow, and we often got dropped. Even the cable suffered from interruptions. I was trying to watch a bit of the Olympics while we were relaxing at the hotel, and the TV reception froze and jumped so often that in a 3 minute boxing round, I saw maybe 10 seconds of the action. Every channel suffered the same fate - from their regular channels to the three HBO channels. It was infuriating, trying to watch the news, only to miss most of what was being said because...We were only here for a night, and it was a budget hotel, so we got what we expected, as far as comfort and cleanliness went. The location was fine - it was close to the venue we were visiting, and within easy driving distance of restaurants and things like Target and Starbucks. Our check-in experience left a lot to be desired. I don't need overly bubbly, fake-friendly staff, but would it kill you to crack a smile, or at least pretend to be interested in the people checking in? Or, you know, stop your non-work-related conversation with the maintenance guy long enough to even acknowledge that we're standing there?The room itself was fine - clean-ish and large. It had an arm chair and a desk, along with a fridge (which we used while we were there - it was hot as balls!) The WiFi was free, but it was also very slow, and we often got dropped. Even the cable suffered from interruptions. I was trying to watch a bit of the Olympics while we were relaxing at the hotel, and the TV reception froze and jumped so often that in a 3 minute boxing round, I saw maybe 10 seconds of the action. Every channel suffered the same fate - from their regular channels to the three HBO channels. It was infuriating, trying to watch the news, only to miss most of what was being said because of the crappy reception.The toilet and shower were separate from the sink (toilet and shower behind the door, sink in the sleeping area), and the bathroom door wouldn't stay open without propping something up next to it (I got creative and used the luggage rack to keep it open).The bed was decent for one night, but I don't think I'd get many restful nights there, if we had stayed longer.Parking was free, and the lot was large. The elevator was almost comically slow, so I recommend taking the stairs, if you're able.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>We were only here for a night, and it was a budget hotel, so we got what we expected, as far as comfort and cleanliness went. The location was fine - it was close to the venue we were visiting, and within easy driving distance of restaurants and things like Target and Starbucks. 
+Our check-in experience left a lot to be desired. I don't need overly bubbly, fake-friendly staff, but would it kill you to crack a smile, or at least pretend to be interested in the people checking in? Or, you know, stop your non-work-related conversation with the maintenance guy long enough to even acknowledge that we're standing there?
+The room itself was fine - clean-ish and large. It had an arm chair and a desk, along with a fridge (which we used while we were there - it was hot as balls!) The WiFi was free, but it was also very slow, and we often got dropped. Even the cable suffered from interruptions. I was trying to watch a bit of the Olympics while we were relaxing at the hotel, and the TV reception froze and jumped so often that in a 3 minute boxing round, I saw maybe 10 seconds of the action. Every channel suffered the same fate - from their regular channels to the three HBO channels. It was infuriating, trying to watch the news, only to miss most of what was being said because...We were only here for a night, and it was a budget hotel, so we got what we expected, as far as comfort and cleanliness went. The location was fine - it was close to the venue we were visiting, and within easy driving distance of restaurants and things like Target and Starbucks. Our check-in experience left a lot to be desired. I don't need overly bubbly, fake-friendly staff, but would it kill you to crack a smile, or at least pretend to be interested in the people checking in? Or, you know, stop your non-work-related conversation with the maintenance guy long enough to even acknowledge that we're standing there?The room itself was fine - clean-ish and large. It had an arm chair and a desk, along with a fridge (which we used while we were there - it was hot as balls!) The WiFi was free, but it was also very slow, and we often got dropped. Even the cable suffered from interruptions. I was trying to watch a bit of the Olympics while we were relaxing at the hotel, and the TV reception froze and jumped so often that in a 3 minute boxing round, I saw maybe 10 seconds of the action. Every channel suffered the same fate - from their regular channels to the three HBO channels. It was infuriating, trying to watch the news, only to miss most of what was being said because of the crappy reception.The toilet and shower were separate from the sink (toilet and shower behind the door, sink in the sleeping area), and the bathroom door wouldn't stay open without propping something up next to it (I got creative and used the luggage rack to keep it open).The bed was decent for one night, but I don't think I'd get many restful nights there, if we had stayed longer.Parking was free, and the lot was large. The elevator was almost comically slow, so I recommend taking the stairs, if you're able.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r401949967-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>401949967</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>This establishment is close to the 60 freeway. I had the chance to stay overnight at this particular Holiday Inn. The room had a comfortable king size bed with a desk to use, a 32 inch LG flat screen TV, a refrigerator, a nice dresser for travelers to place their personal belongings in, a mini bathroom sink with a toilet inside the room. The shower was not as pleasant as I had hoped it would be. The shower head is removable from the bracket. There are many hand bars for those who may need something to hold onto in the bathroom. The room could use more electrical outlets especially with travelers bringing along many of their personal devices. I found two in the room and two in the bathroom, which is nice, but not advisable as it could short out due to the closeness of the outlet to the sink.My one negative comment would be that I had contacted the hotel earlier in the day requesting two double beds? The hostess mentioned they would hold the beds for me. When I checked in - I found out I was placed in a king size bed. It would have been nice if the front desk would have honored my request as I had called in earlier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>This establishment is close to the 60 freeway. I had the chance to stay overnight at this particular Holiday Inn. The room had a comfortable king size bed with a desk to use, a 32 inch LG flat screen TV, a refrigerator, a nice dresser for travelers to place their personal belongings in, a mini bathroom sink with a toilet inside the room. The shower was not as pleasant as I had hoped it would be. The shower head is removable from the bracket. There are many hand bars for those who may need something to hold onto in the bathroom. The room could use more electrical outlets especially with travelers bringing along many of their personal devices. I found two in the room and two in the bathroom, which is nice, but not advisable as it could short out due to the closeness of the outlet to the sink.My one negative comment would be that I had contacted the hotel earlier in the day requesting two double beds? The hostess mentioned they would hold the beds for me. When I checked in - I found out I was placed in a king size bed. It would have been nice if the front desk would have honored my request as I had called in earlier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r385070116-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>385070116</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Loud music.</t>
+  </si>
+  <si>
+    <t>Turns out there was a birthday party at the hotel. The music rattled the whole building.I was on the 5th floor. It ran late into the night. Complained to front desk around 9:30 and all they said was sorry. Then at check out I also complained and again all I got was an apology. I heard from other guess that they were also bothered and complained.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Turns out there was a birthday party at the hotel. The music rattled the whole building.I was on the 5th floor. It ran late into the night. Complained to front desk around 9:30 and all they said was sorry. Then at check out I also complained and again all I got was an apology. I heard from other guess that they were also bothered and complained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r382043447-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>382043447</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Nothing bad; nothing exciting.  Completely acceptable.</t>
+  </si>
+  <si>
+    <t>Stayed twice; week apart.  bartender Juan is very nice lad.   bar and grill area out of date.  parking great.  attracts tour buses .... lots of chinese.  elevator out at second visit so tried to use stairs but they are emergency exit only.  no recycling in room.  staff gracious, which is always a plus. Starbucks is close.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed twice; week apart.  bartender Juan is very nice lad.   bar and grill area out of date.  parking great.  attracts tour buses .... lots of chinese.  elevator out at second visit so tried to use stairs but they are emergency exit only.  no recycling in room.  staff gracious, which is always a plus. Starbucks is close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r381768519-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>381768519</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Loud. Stay away!</t>
+  </si>
+  <si>
+    <t>When staying at a hotel my major criteria is convenience. However an unwritten rule is the expectation that you will sleep well. I'm typing this review from a room on the 6th floor at 10:50pm because my family and I cannot sleep. Apparently there is an event on the first floor that is so loud it has keep us awake. Normally I wouldn't mind so much but when traveling with an infant this tends to be a bit more irritating. We called the front desk to complain and were told they can't do anything because of a contract. So we suffer but the delirium has made me wiser.. Ask about hotel events before staying and NEVER stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>When staying at a hotel my major criteria is convenience. However an unwritten rule is the expectation that you will sleep well. I'm typing this review from a room on the 6th floor at 10:50pm because my family and I cannot sleep. Apparently there is an event on the first floor that is so loud it has keep us awake. Normally I wouldn't mind so much but when traveling with an infant this tends to be a bit more irritating. We called the front desk to complain and were told they can't do anything because of a contract. So we suffer but the delirium has made me wiser.. Ask about hotel events before staying and NEVER stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r368289654-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>368289654</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>We were very impressed!!  We had a room by the elevator and didn't hear it any time. We also had rooms on the Highway side of the Hotel and weren't bothered by the noise at all.   We were there for the Drag races and had an awesome experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>We were very impressed!!  We had a room by the elevator and didn't hear it any time. We also had rooms on the Highway side of the Hotel and weren't bothered by the noise at all.   We were there for the Drag races and had an awesome experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r355923146-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>355923146</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine experience </t>
+  </si>
+  <si>
+    <t>We got a good rate here for our trip to Disneyland.  The staff was friendly and efficient, the room was clean and I couldn't hear any noise from the freeway.  The checkout was done without leaving the room.  I would stay here again, the only negative is that the bathroom doesn't have a fan, so you have to run the shower to get some background noise which wastes water.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>We got a good rate here for our trip to Disneyland.  The staff was friendly and efficient, the room was clean and I couldn't hear any noise from the freeway.  The checkout was done without leaving the room.  I would stay here again, the only negative is that the bathroom doesn't have a fan, so you have to run the shower to get some background noise which wastes water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r352637575-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>352637575</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Not a quiet place</t>
+  </si>
+  <si>
+    <t>Bring your earplugs. This place is right on the freeway. Across the freeway is an ugly view of mining or digging of some sort. Ask for a room on the opposite side. Otherwise as good as expected for a Holiday Inn. Though I should have read the fine print as they do not provide a free breakfast, it costs $10.95.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2016</t>
+  </si>
+  <si>
+    <t>Bring your earplugs. This place is right on the freeway. Across the freeway is an ugly view of mining or digging of some sort. Ask for a room on the opposite side. Otherwise as good as expected for a Holiday Inn. Though I should have read the fine print as they do not provide a free breakfast, it costs $10.95.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r332965746-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>332965746</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Not up to the standard</t>
+  </si>
+  <si>
+    <t>This hotel did not reach the standard I have come to expect.  Checked in to stay three nights left after one.  Hotel is showing it's age.  Room was very small and bathroom was very dated and dirty.  Elevators were very slow.  Breakfast staff was indifferent at best.  This is a skip it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>This hotel did not reach the standard I have come to expect.  Checked in to stay three nights left after one.  Hotel is showing it's age.  Room was very small and bathroom was very dated and dirty.  Elevators were very slow.  Breakfast staff was indifferent at best.  This is a skip it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r327393687-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>327393687</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>ANTS EVERYWHERE- HORRIBLE- RUDE- INCONSIDERATE- DO NOT STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t>ANTS, HORRIBLE CUSTOMER SERVICE, RUDE WAIT STAFF, TERRIBLE MANAGEMENT!!!!!! Do NOT stay here! I drove 6 hours from Arizona arrived at the hotel around midnight with my family of 4 checked into room 515, walk in find ANTS everywhere and not just a couple we tried to brush them off and as we keep looking we find them everywhere. I called downstairs to get a different room and all them offered is for the security guard to come change the sheets I then go downstairs and demand my money back so we could leave and they tell me they do not have authority to return my money and after about 30 minutes of going back and forth they tell me they can "upgrade" me to a jr suite with ONE bed.. Remember there is 4 of us!! After being told that there is no other room and that I cannot get my money back we go upstairs and check out room 202 and decide that it's already two in the morning and will stay in that room. Now my children will have to sleep on the floor- so you tell me how is that an upgrade?!?   To top it off I wake up about for work four hours later and get to go in the shower and find ANTS in the  shower. Again I go downstairs and I complain tell him I have a legitimate claim and that I want...ANTS, HORRIBLE CUSTOMER SERVICE, RUDE WAIT STAFF, TERRIBLE MANAGEMENT!!!!!! Do NOT stay here! I drove 6 hours from Arizona arrived at the hotel around midnight with my family of 4 checked into room 515, walk in find ANTS everywhere and not just a couple we tried to brush them off and as we keep looking we find them everywhere. I called downstairs to get a different room and all them offered is for the security guard to come change the sheets I then go downstairs and demand my money back so we could leave and they tell me they do not have authority to return my money and after about 30 minutes of going back and forth they tell me they can "upgrade" me to a jr suite with ONE bed.. Remember there is 4 of us!! After being told that there is no other room and that I cannot get my money back we go upstairs and check out room 202 and decide that it's already two in the morning and will stay in that room. Now my children will have to sleep on the floor- so you tell me how is that an upgrade?!?   To top it off I wake up about for work four hours later and get to go in the shower and find ANTS in the  shower. Again I go downstairs and I complain tell him I have a legitimate claim and that I want to get a full refund for their horrible customer service waitstaff only to be told that they could not refund me my money..  I have been fighting with them ever since. They told me they did find ants in 515 BUT didn't find ants in 202 lol this is their was of keeping my money for their TERRIBLE ACCOMMODATIONS!!! They REFUSED TO ACCEPT RESPONSIBILITY THEY REFUSE TO GIVE ME A REFUND! THIS PLACE IS A DUMP AND A RIPOFF!!! No stars!! Had to click 1 star in order to post.. Oh and I did not even mention the waitress in the Buffett that was talking crap in Spanish...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>ANTS, HORRIBLE CUSTOMER SERVICE, RUDE WAIT STAFF, TERRIBLE MANAGEMENT!!!!!! Do NOT stay here! I drove 6 hours from Arizona arrived at the hotel around midnight with my family of 4 checked into room 515, walk in find ANTS everywhere and not just a couple we tried to brush them off and as we keep looking we find them everywhere. I called downstairs to get a different room and all them offered is for the security guard to come change the sheets I then go downstairs and demand my money back so we could leave and they tell me they do not have authority to return my money and after about 30 minutes of going back and forth they tell me they can "upgrade" me to a jr suite with ONE bed.. Remember there is 4 of us!! After being told that there is no other room and that I cannot get my money back we go upstairs and check out room 202 and decide that it's already two in the morning and will stay in that room. Now my children will have to sleep on the floor- so you tell me how is that an upgrade?!?   To top it off I wake up about for work four hours later and get to go in the shower and find ANTS in the  shower. Again I go downstairs and I complain tell him I have a legitimate claim and that I want...ANTS, HORRIBLE CUSTOMER SERVICE, RUDE WAIT STAFF, TERRIBLE MANAGEMENT!!!!!! Do NOT stay here! I drove 6 hours from Arizona arrived at the hotel around midnight with my family of 4 checked into room 515, walk in find ANTS everywhere and not just a couple we tried to brush them off and as we keep looking we find them everywhere. I called downstairs to get a different room and all them offered is for the security guard to come change the sheets I then go downstairs and demand my money back so we could leave and they tell me they do not have authority to return my money and after about 30 minutes of going back and forth they tell me they can "upgrade" me to a jr suite with ONE bed.. Remember there is 4 of us!! After being told that there is no other room and that I cannot get my money back we go upstairs and check out room 202 and decide that it's already two in the morning and will stay in that room. Now my children will have to sleep on the floor- so you tell me how is that an upgrade?!?   To top it off I wake up about for work four hours later and get to go in the shower and find ANTS in the  shower. Again I go downstairs and I complain tell him I have a legitimate claim and that I want to get a full refund for their horrible customer service waitstaff only to be told that they could not refund me my money..  I have been fighting with them ever since. They told me they did find ants in 515 BUT didn't find ants in 202 lol this is their was of keeping my money for their TERRIBLE ACCOMMODATIONS!!! They REFUSED TO ACCEPT RESPONSIBILITY THEY REFUSE TO GIVE ME A REFUND! THIS PLACE IS A DUMP AND A RIPOFF!!! No stars!! Had to click 1 star in order to post.. Oh and I did not even mention the waitress in the Buffett that was talking crap in Spanish...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r324763353-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>324763353</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel I've ever stayed at </t>
+  </si>
+  <si>
+    <t>This hotel is just simply the worst hotel I have ever stayed at. The staff is very rude and make you feel uncomfortable the moment you walk in. I stayed there with some family this past weekend and the staff made us feel unwelcome the moment we walked in the door . the told us no noise or party but we were not there for that type of visit . I felt offended and disrespected because I was judge with my company and felt embarrassed. I even called the front office and asked if there would be a problem and they said no. But the whole weekend we kept on getting bad looks from both the staff and the managers . I'm a spire elite member with IHG and never have I been so uncomfortable and embarrassed to be at a holiday inn  Establishment. Do not stay at this location ever. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded November 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is just simply the worst hotel I have ever stayed at. The staff is very rude and make you feel uncomfortable the moment you walk in. I stayed there with some family this past weekend and the staff made us feel unwelcome the moment we walked in the door . the told us no noise or party but we were not there for that type of visit . I felt offended and disrespected because I was judge with my company and felt embarrassed. I even called the front office and asked if there would be a problem and they said no. But the whole weekend we kept on getting bad looks from both the staff and the managers . I'm a spire elite member with IHG and never have I been so uncomfortable and embarrassed to be at a holiday inn  Establishment. Do not stay at this location ever. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r295006098-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>295006098</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Closer To 4 Stars.. Just Not Quite There..</t>
+  </si>
+  <si>
+    <t>This is a very good property and has a lot of amenities like an outside terrace with table umbrellas for shade and heat lamps for chilly nights, onsite restaurant with in room service, and convenience shop for emergency and forgotten items.This is a converted property, it looks like a former Clarion or Comfort asset, and because if that some things are not what one would expect from Holiday Inn. The room layouts are small, awkward, and cluttered with too much furniture. For example, the sink vanity is outside the bathroom in the living space. The business center is just a couple of PC's in a hallway without any privacy, facsimile machines or copiers.There is an onsite restaurant called DB's where the food is above average but service is decidedly different between breakfast and dinner, skip breakfast. Also, the layout is awkward with buffet at one end and cold cereal, yogurt, and drinks at the other. In the end the price point is great and it all looks like it's there, but in the end it's a little askew.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>This is a very good property and has a lot of amenities like an outside terrace with table umbrellas for shade and heat lamps for chilly nights, onsite restaurant with in room service, and convenience shop for emergency and forgotten items.This is a converted property, it looks like a former Clarion or Comfort asset, and because if that some things are not what one would expect from Holiday Inn. The room layouts are small, awkward, and cluttered with too much furniture. For example, the sink vanity is outside the bathroom in the living space. The business center is just a couple of PC's in a hallway without any privacy, facsimile machines or copiers.There is an onsite restaurant called DB's where the food is above average but service is decidedly different between breakfast and dinner, skip breakfast. Also, the layout is awkward with buffet at one end and cold cereal, yogurt, and drinks at the other. In the end the price point is great and it all looks like it's there, but in the end it's a little askew.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r288263139-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>288263139</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel  But ...</t>
+  </si>
+  <si>
+    <t>We had a reservation for 6 nights with a simple  request : two beds. We arrived earlier on Sunday 5:00PM  and got a room with one bed. I showed them the hotel confirmation  letter and it has 'two beds' request on the top of the letter. All he said was 'sorry' and told me he can add a rolling bed for me. I went to the room and found if a rolling bed added to the room , then whole week we can not move, so I decided 'Not' add the rolling bed and sleep on the sofa chair. To my surprise, after we got in the room I received my credit card notice:  $1229.84 charged on my credit card. I looked at the confirmation letter and it was $1078.62 for six nights . Why there are extra charge??  Finally , the company manager stopped by the hotel and 
+got the charge correct. But we still have one bed only. 
+After two night sleep on the sofa, my back was hurt, I went downstairs to talk to someone in charge. He told me : there are travel group in Wednesday , so they can not give me 'two beds' room.  Yes, I noticed, there are travel groups from China, Taiwan  stay in the hotel,  I noticed Monday, Wednesday and Friday ( quite often) groups were in the hotel. You get punished, you stay long, if i only stay one day,...We had a reservation for 6 nights with a simple  request : two beds. We arrived earlier on Sunday 5:00PM  and got a room with one bed. I showed them the hotel confirmation  letter and it has 'two beds' request on the top of the letter. All he said was 'sorry' and told me he can add a rolling bed for me. I went to the room and found if a rolling bed added to the room , then whole week we can not move, so I decided 'Not' add the rolling bed and sleep on the sofa chair. To my surprise, after we got in the room I received my credit card notice:  $1229.84 charged on my credit card. I looked at the confirmation letter and it was $1078.62 for six nights . Why there are extra charge??  Finally , the company manager stopped by the hotel and got the charge correct. But we still have one bed only. After two night sleep on the sofa, my back was hurt, I went downstairs to talk to someone in charge. He told me : there are travel group in Wednesday , so they can not give me 'two beds' room.  Yes, I noticed, there are travel groups from China, Taiwan  stay in the hotel,  I noticed Monday, Wednesday and Friday ( quite often) groups were in the hotel. You get punished, you stay long, if i only stay one day, I may get two beds for us.The hotel charges  $9.95 for the morning breakfast buffet, during the day, group are in,  i can not get 'hot water' for my tea, most time , food are gone quick, so you must be quick... quick..The hotel is in a nice location, nice environment.  I went couple places around diamond bar area and I enjoyed.  Another nice thing about the hotel is the swimming pool, big and clean.As long as you have a strong muscle and you don't mind sleep on the rolling bed or like me 'petite', squeeze in the sofa chair...  But after one week, long long six nightsmy back is really hurt !!!! What a unforgettable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Supervisor at Holiday Inn Select Diamond Bar, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>We had a reservation for 6 nights with a simple  request : two beds. We arrived earlier on Sunday 5:00PM  and got a room with one bed. I showed them the hotel confirmation  letter and it has 'two beds' request on the top of the letter. All he said was 'sorry' and told me he can add a rolling bed for me. I went to the room and found if a rolling bed added to the room , then whole week we can not move, so I decided 'Not' add the rolling bed and sleep on the sofa chair. To my surprise, after we got in the room I received my credit card notice:  $1229.84 charged on my credit card. I looked at the confirmation letter and it was $1078.62 for six nights . Why there are extra charge??  Finally , the company manager stopped by the hotel and 
+got the charge correct. But we still have one bed only. 
+After two night sleep on the sofa, my back was hurt, I went downstairs to talk to someone in charge. He told me : there are travel group in Wednesday , so they can not give me 'two beds' room.  Yes, I noticed, there are travel groups from China, Taiwan  stay in the hotel,  I noticed Monday, Wednesday and Friday ( quite often) groups were in the hotel. You get punished, you stay long, if i only stay one day,...We had a reservation for 6 nights with a simple  request : two beds. We arrived earlier on Sunday 5:00PM  and got a room with one bed. I showed them the hotel confirmation  letter and it has 'two beds' request on the top of the letter. All he said was 'sorry' and told me he can add a rolling bed for me. I went to the room and found if a rolling bed added to the room , then whole week we can not move, so I decided 'Not' add the rolling bed and sleep on the sofa chair. To my surprise, after we got in the room I received my credit card notice:  $1229.84 charged on my credit card. I looked at the confirmation letter and it was $1078.62 for six nights . Why there are extra charge??  Finally , the company manager stopped by the hotel and got the charge correct. But we still have one bed only. After two night sleep on the sofa, my back was hurt, I went downstairs to talk to someone in charge. He told me : there are travel group in Wednesday , so they can not give me 'two beds' room.  Yes, I noticed, there are travel groups from China, Taiwan  stay in the hotel,  I noticed Monday, Wednesday and Friday ( quite often) groups were in the hotel. You get punished, you stay long, if i only stay one day, I may get two beds for us.The hotel charges  $9.95 for the morning breakfast buffet, during the day, group are in,  i can not get 'hot water' for my tea, most time , food are gone quick, so you must be quick... quick..The hotel is in a nice location, nice environment.  I went couple places around diamond bar area and I enjoyed.  Another nice thing about the hotel is the swimming pool, big and clean.As long as you have a strong muscle and you don't mind sleep on the rolling bed or like me 'petite', squeeze in the sofa chair...  But after one week, long long six nightsmy back is really hurt !!!! What a unforgettable experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r280197190-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>280197190</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>A very comfortable handicapped room</t>
+  </si>
+  <si>
+    <t>We had a really difficult time finding a wheel in shower handicapped room in this area that we needed to be in for a son's wedding.  Although this hotel is in a predominantly Chinese area, we were treated very well.  Our bed was very comfortable andd though the room was a little tight fit for my wheelchair, the bathroom was one of the best I have been in.  We had plenty of hot water too! Everyone was very friendly and accomadating.  I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Hotel M, General Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>We had a really difficult time finding a wheel in shower handicapped room in this area that we needed to be in for a son's wedding.  Although this hotel is in a predominantly Chinese area, we were treated very well.  Our bed was very comfortable andd though the room was a little tight fit for my wheelchair, the bathroom was one of the best I have been in.  We had plenty of hot water too! Everyone was very friendly and accomadating.  I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r274962752-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>274962752</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>LIKE SLEEPING IN A TOLL BOOTH!!</t>
+  </si>
+  <si>
+    <t>The hotel is pretty much what you'd expect from a typical Holiday Inn in terms of room and ammenities. You won't be sharing pitchers of your room around the water cooler when you get back home. The front desk staff is very helpful with great service. So much for what they can control...what the CAN'T control is the nonstop traffic that seems to drive THRU the hallways. We were on the 6th floor facing the multiple highways and the windows couldn't hold back the nonstop rush of traffic going by day and night. My wife tried earplugs to little avail. I don't mind the noise (unless you include the griping coming from my wife about the traffic) so I slept well. She uses a fit bit that tracks her sleep patterns and the graph looked like the Rocky Mountains with peaks and valleys throughout the night. If you are a heavy sleeper sans an unhappy spouse, then you'll probably be fine. If 'things that go whoosh in the night' bother you then you better look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded June 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is pretty much what you'd expect from a typical Holiday Inn in terms of room and ammenities. You won't be sharing pitchers of your room around the water cooler when you get back home. The front desk staff is very helpful with great service. So much for what they can control...what the CAN'T control is the nonstop traffic that seems to drive THRU the hallways. We were on the 6th floor facing the multiple highways and the windows couldn't hold back the nonstop rush of traffic going by day and night. My wife tried earplugs to little avail. I don't mind the noise (unless you include the griping coming from my wife about the traffic) so I slept well. She uses a fit bit that tracks her sleep patterns and the graph looked like the Rocky Mountains with peaks and valleys throughout the night. If you are a heavy sleeper sans an unhappy spouse, then you'll probably be fine. If 'things that go whoosh in the night' bother you then you better look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r273656572-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>273656572</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>No Problems, Good Location</t>
+  </si>
+  <si>
+    <t>Parking lot is spacious, well lit, and mostly out in front of the hotel.  Better than others whose parking lots wrap around the side and are dim / hidden from view.  The lobby is open and clean.  The first floor has a restaurant which is the breakfast bar in the AM, and a nice bar / restaurant at night.  The food is very good in the restaurant, and reasonably priced.  The rooms were clean and comfortable.  My room had no issues, and I didn't interact with the front desk for anything.  I will be staying here when I visit my customer in the future.Also, I saw where one of the other reviewers indicated the highway noise was bad.  Maybe it was an old review, because I had a highway side room, and it did not bother me at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded May 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2015</t>
+  </si>
+  <si>
+    <t>Parking lot is spacious, well lit, and mostly out in front of the hotel.  Better than others whose parking lots wrap around the side and are dim / hidden from view.  The lobby is open and clean.  The first floor has a restaurant which is the breakfast bar in the AM, and a nice bar / restaurant at night.  The food is very good in the restaurant, and reasonably priced.  The rooms were clean and comfortable.  My room had no issues, and I didn't interact with the front desk for anything.  I will be staying here when I visit my customer in the future.Also, I saw where one of the other reviewers indicated the highway noise was bad.  Maybe it was an old review, because I had a highway side room, and it did not bother me at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r272328064-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>272328064</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and noisy.</t>
+  </si>
+  <si>
+    <t>This hotel is up to Holiday Inn Express standards in every way but the noise.  We had a freeway side room that was so loud we thought the windows had been left open.  The staff was young and inexperienced and had trouble finding a suitable room after a long drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is up to Holiday Inn Express standards in every way but the noise.  We had a freeway side room that was so loud we thought the windows had been left open.  The staff was young and inexperienced and had trouble finding a suitable room after a long drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r248921488-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>248921488</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stayed here for six nights from January 6 to January 12, and I had an average experience. I was placed in a room on the side of the hotel that faces the 57/60 freeway interchange. You can hear the sound of the cars whizzing by continuously like a non-stop waterfall. If you are a light sleeper like me, it may take some time to adjust to the freeway noise before you can finally fall asleep. Coming from New York on leisure travel, I must say the windows are poorly insulated from this noise. I've stayed in hotels on the 5th floor in NYC facing a busy street and can hardly hear a noise due to good insulation windows, which this hotel lacked.
+I work in the hotel industry in NYC and front desk clerks assign the least desirable rooms to people who get bargains online. The reason why I was assigned a room facing the freeway is most likely  because I found a cheap rate through Hotels.com. If you pay a cheap rate, you may be assigned a room facing the freeway.
+The reason why I am giving this hotel 3 stars and not 2 is the service shown by the front desk. I was greeted with a hello and a smile by the one friendly lady behind the front desk everytime I entered or left the hotel. Everyone else was just polite (not necessarily friendly). I never encountered a...Stayed here for six nights from January 6 to January 12, and I had an average experience. I was placed in a room on the side of the hotel that faces the 57/60 freeway interchange. You can hear the sound of the cars whizzing by continuously like a non-stop waterfall. If you are a light sleeper like me, it may take some time to adjust to the freeway noise before you can finally fall asleep. Coming from New York on leisure travel, I must say the windows are poorly insulated from this noise. I've stayed in hotels on the 5th floor in NYC facing a busy street and can hardly hear a noise due to good insulation windows, which this hotel lacked.I work in the hotel industry in NYC and front desk clerks assign the least desirable rooms to people who get bargains online. The reason why I was assigned a room facing the freeway is most likely  because I found a cheap rate through Hotels.com. If you pay a cheap rate, you may be assigned a room facing the freeway.The reason why I am giving this hotel 3 stars and not 2 is the service shown by the front desk. I was greeted with a hello and a smile by the one friendly lady behind the front desk everytime I entered or left the hotel. Everyone else was just polite (not necessarily friendly). I never encountered a rude staff member here.If you just need a roof over your head and don't mind the noise from the freeway, should they put you on that side of the hotel, then this place might work for you. But personally I will choose another hotel the next time I visit the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for six nights from January 6 to January 12, and I had an average experience. I was placed in a room on the side of the hotel that faces the 57/60 freeway interchange. You can hear the sound of the cars whizzing by continuously like a non-stop waterfall. If you are a light sleeper like me, it may take some time to adjust to the freeway noise before you can finally fall asleep. Coming from New York on leisure travel, I must say the windows are poorly insulated from this noise. I've stayed in hotels on the 5th floor in NYC facing a busy street and can hardly hear a noise due to good insulation windows, which this hotel lacked.
+I work in the hotel industry in NYC and front desk clerks assign the least desirable rooms to people who get bargains online. The reason why I was assigned a room facing the freeway is most likely  because I found a cheap rate through Hotels.com. If you pay a cheap rate, you may be assigned a room facing the freeway.
+The reason why I am giving this hotel 3 stars and not 2 is the service shown by the front desk. I was greeted with a hello and a smile by the one friendly lady behind the front desk everytime I entered or left the hotel. Everyone else was just polite (not necessarily friendly). I never encountered a...Stayed here for six nights from January 6 to January 12, and I had an average experience. I was placed in a room on the side of the hotel that faces the 57/60 freeway interchange. You can hear the sound of the cars whizzing by continuously like a non-stop waterfall. If you are a light sleeper like me, it may take some time to adjust to the freeway noise before you can finally fall asleep. Coming from New York on leisure travel, I must say the windows are poorly insulated from this noise. I've stayed in hotels on the 5th floor in NYC facing a busy street and can hardly hear a noise due to good insulation windows, which this hotel lacked.I work in the hotel industry in NYC and front desk clerks assign the least desirable rooms to people who get bargains online. The reason why I was assigned a room facing the freeway is most likely  because I found a cheap rate through Hotels.com. If you pay a cheap rate, you may be assigned a room facing the freeway.The reason why I am giving this hotel 3 stars and not 2 is the service shown by the front desk. I was greeted with a hello and a smile by the one friendly lady behind the front desk everytime I entered or left the hotel. Everyone else was just polite (not necessarily friendly). I never encountered a rude staff member here.If you just need a roof over your head and don't mind the noise from the freeway, should they put you on that side of the hotel, then this place might work for you. But personally I will choose another hotel the next time I visit the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r241927512-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>241927512</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Suitable for Business Trip</t>
+  </si>
+  <si>
+    <t>My stay and overall experience was just fine, though a couple of things keep this location from getting a rating bump. Above average was the friendliness of the staff, not just the front desk but even the maintenance guy who happened on the elevator with me. It's a welcoming environment. The room was clean, the bed and pillows very comfortable, the TV and cable service was as expected. You need to understand that half the hotel faces a major section of highway where 57 and 60 meet. There's no way around it: the traffic noise was evident and constant on that side. It didn't bother me but a colleague had to change rooms. At first you think you left the window open but you didn't, it's just really crappy windows.The other ding is that they can't do much to make the bathroom more than what you'd find at home, maybe less, at least not without major renovation. But it's ok. The sink is in the room, not the bathroom, the hot water had little pressure at that sink, and the light switch sort of worked.  But to me, for business travel these were minor issues.The location was great for my purposes, a very short drive to a number of restaurants but nothing within walking distance. I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>My stay and overall experience was just fine, though a couple of things keep this location from getting a rating bump. Above average was the friendliness of the staff, not just the front desk but even the maintenance guy who happened on the elevator with me. It's a welcoming environment. The room was clean, the bed and pillows very comfortable, the TV and cable service was as expected. You need to understand that half the hotel faces a major section of highway where 57 and 60 meet. There's no way around it: the traffic noise was evident and constant on that side. It didn't bother me but a colleague had to change rooms. At first you think you left the window open but you didn't, it's just really crappy windows.The other ding is that they can't do much to make the bathroom more than what you'd find at home, maybe less, at least not without major renovation. But it's ok. The sink is in the room, not the bathroom, the hot water had little pressure at that sink, and the light switch sort of worked.  But to me, for business travel these were minor issues.The location was great for my purposes, a very short drive to a number of restaurants but nothing within walking distance. I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r241446179-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>241446179</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>Aging HI with Good Service and Strategic Location</t>
+  </si>
+  <si>
+    <t>While this hotel is starting to look a bit dated, the service is good and the location is very strategic for convenient access to Orange County and the San Gabriel and Pomona Valleys.  Choose this one for the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>While this hotel is starting to look a bit dated, the service is good and the location is very strategic for convenient access to Orange County and the San Gabriel and Pomona Valleys.  Choose this one for the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r235468357-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>235468357</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Thankful!</t>
+  </si>
+  <si>
+    <t>I was overwhelmed planning my stay here for a funeral when it hit me that I would need an earlier check-in than 4pm. I contacted the hotel explaining my situation and if anything would be possible. The young lady I spoke too was very understanding and comforting, while making me feel relieved telling me she would be there when i checked in and would have something ready for me. She sure helped. When I arrived she still wasn't there but I later asked if she was (silvia) the young lady I spoke too and it was! During my stay every time I came across her I'd stop by and speak to her about situations I was going through and she listened every time, which helped make my stay more relieving. When I asked for dirrections she immediately got those ready for me. On behalf of my family and I, I would like to thank the staff for making my stay a memorable one.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>I was overwhelmed planning my stay here for a funeral when it hit me that I would need an earlier check-in than 4pm. I contacted the hotel explaining my situation and if anything would be possible. The young lady I spoke too was very understanding and comforting, while making me feel relieved telling me she would be there when i checked in and would have something ready for me. She sure helped. When I arrived she still wasn't there but I later asked if she was (silvia) the young lady I spoke too and it was! During my stay every time I came across her I'd stop by and speak to her about situations I was going through and she listened every time, which helped make my stay more relieving. When I asked for dirrections she immediately got those ready for me. On behalf of my family and I, I would like to thank the staff for making my stay a memorable one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r235456613-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>235456613</t>
+  </si>
+  <si>
+    <t>Memorable</t>
+  </si>
+  <si>
+    <t>By far the best service. I have stayed at many holiday inn's however this one will leave a memory. Everyone who works here is alway smiling , the front desk staff is great!! I will come here more often. Check in was fast however they still asked if I needed anything to give them a call. A young lady at the front was very helpful in calling a taxi for me. I felt like I was showered with their sincere kindness. I am a traveler and I will most likely stay at this location. Good job diamond bar staff you all went out of your way to make my stay a remberable one.MoreShow less</t>
+  </si>
+  <si>
+    <t>By far the best service. I have stayed at many holiday inn's however this one will leave a memory. Everyone who works here is alway smiling , the front desk staff is great!! I will come here more often. Check in was fast however they still asked if I needed anything to give them a call. A young lady at the front was very helpful in calling a taxi for me. I felt like I was showered with their sincere kindness. I am a traveler and I will most likely stay at this location. Good job diamond bar staff you all went out of your way to make my stay a remberable one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r233543558-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>233543558</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Impressive !!!</t>
+  </si>
+  <si>
+    <t>Wow!! This place made me feel like we had met before I travel all the time and lots of hotels just give you that great Customer service when you check in and as soon as they see you again it's always that awkward " how can we help you?" With a forceful smile.. But not here!!!  After checking into my room a few minutes later my room phone rings... It was the front desk (Loveleen) asking how was everything with my room?? I told her so far so good! I had googled a chilies restaurant close by so I decided to dine their for the night but as I was on my way out the front desk gave me great smile and said enjoying your stay? I said yup on my way to have dinner... Any recommendations ? She said we sure do DB's  grill!!! She started telling me all about the menu and how great it was... Sold I said... And it's was worth it!! I ordered a steak with a potato... Now that was a good steak!!! The service was amazing their too!!  My server  "Juan" was quick and my food delicious.. Once I came out thier was that warm welcoming again.. Asking me if I enjoyed my dinner. I thanked her for her recommendation and told  that everyone here is soon nice... Not only was I impressed with the way everyone here collaborated to work together as...Wow!! This place made me feel like we had met before I travel all the time and lots of hotels just give you that great Customer service when you check in and as soon as they see you again it's always that awkward " how can we help you?" With a forceful smile.. But not here!!!  After checking into my room a few minutes later my room phone rings... It was the front desk (Loveleen) asking how was everything with my room?? I told her so far so good! I had googled a chilies restaurant close by so I decided to dine their for the night but as I was on my way out the front desk gave me great smile and said enjoying your stay? I said yup on my way to have dinner... Any recommendations ? She said we sure do DB's  grill!!! She started telling me all about the menu and how great it was... Sold I said... And it's was worth it!! I ordered a steak with a potato... Now that was a good steak!!! The service was amazing their too!!  My server  "Juan" was quick and my food delicious.. Once I came out thier was that warm welcoming again.. Asking me if I enjoyed my dinner. I thanked her for her recommendation and told  that everyone here is soon nice... Not only was I impressed with the way everyone here collaborated to work together as one team but  also just the way the all the staff careered each of thier positions with such professionalism and knowledge .... My hat goes off to this team... MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow!! This place made me feel like we had met before I travel all the time and lots of hotels just give you that great Customer service when you check in and as soon as they see you again it's always that awkward " how can we help you?" With a forceful smile.. But not here!!!  After checking into my room a few minutes later my room phone rings... It was the front desk (Loveleen) asking how was everything with my room?? I told her so far so good! I had googled a chilies restaurant close by so I decided to dine their for the night but as I was on my way out the front desk gave me great smile and said enjoying your stay? I said yup on my way to have dinner... Any recommendations ? She said we sure do DB's  grill!!! She started telling me all about the menu and how great it was... Sold I said... And it's was worth it!! I ordered a steak with a potato... Now that was a good steak!!! The service was amazing their too!!  My server  "Juan" was quick and my food delicious.. Once I came out thier was that warm welcoming again.. Asking me if I enjoyed my dinner. I thanked her for her recommendation and told  that everyone here is soon nice... Not only was I impressed with the way everyone here collaborated to work together as...Wow!! This place made me feel like we had met before I travel all the time and lots of hotels just give you that great Customer service when you check in and as soon as they see you again it's always that awkward " how can we help you?" With a forceful smile.. But not here!!!  After checking into my room a few minutes later my room phone rings... It was the front desk (Loveleen) asking how was everything with my room?? I told her so far so good! I had googled a chilies restaurant close by so I decided to dine their for the night but as I was on my way out the front desk gave me great smile and said enjoying your stay? I said yup on my way to have dinner... Any recommendations ? She said we sure do DB's  grill!!! She started telling me all about the menu and how great it was... Sold I said... And it's was worth it!! I ordered a steak with a potato... Now that was a good steak!!! The service was amazing their too!!  My server  "Juan" was quick and my food delicious.. Once I came out thier was that warm welcoming again.. Asking me if I enjoyed my dinner. I thanked her for her recommendation and told  that everyone here is soon nice... Not only was I impressed with the way everyone here collaborated to work together as one team but  also just the way the all the staff careered each of thier positions with such professionalism and knowledge .... My hat goes off to this team... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r231357356-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>231357356</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>I stayed here for one night for business. I got an upgrade to a nice suite facing the parking lot. The bed was very comfortable, the room had a fridge, a HUGE dresser, nice adjustable TV, the bathroom &amp; shower were wonderful &amp; I have no real complaints. The AC unit was noisy but that's not uncommon in hotel rooms, I believe. I'd definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for one night for business. I got an upgrade to a nice suite facing the parking lot. The bed was very comfortable, the room had a fridge, a HUGE dresser, nice adjustable TV, the bathroom &amp; shower were wonderful &amp; I have no real complaints. The AC unit was noisy but that's not uncommon in hotel rooms, I believe. I'd definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r230110263-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>230110263</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>A friendly and down-to-earth hotel</t>
+  </si>
+  <si>
+    <t>The staff here are extremely friendly.  All of them have great smiles, making you feel you are a valued guest.  Though everything inside the hotel is pretty basic, the hospitality makes the experience more dynamic.   Try to maintain a healthy lifestyle on the road?  There is a Farm Market within walking distance, with a lot of fresh fruits.  Mansun, a Japanese restaurant, is next to the Farmer Market.  But the wait time is long.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>The staff here are extremely friendly.  All of them have great smiles, making you feel you are a valued guest.  Though everything inside the hotel is pretty basic, the hospitality makes the experience more dynamic.   Try to maintain a healthy lifestyle on the road?  There is a Farm Market within walking distance, with a lot of fresh fruits.  Mansun, a Japanese restaurant, is next to the Farmer Market.  But the wait time is long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r226324416-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>226324416</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean, and Quiet</t>
+  </si>
+  <si>
+    <t>This hotel was just perfect for our one-night stay.  The bed was comfortable, room was clean, and the hotel was pretty quiet.  It sits on a hill away from immediate traffic.  The room was a bit small.  Not much space between the bed and dresser, and sink counter could use more space.   Would highly recommend for cleanliness and comfort!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Hotel M, Front Office Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was just perfect for our one-night stay.  The bed was comfortable, room was clean, and the hotel was pretty quiet.  It sits on a hill away from immediate traffic.  The room was a bit small.  Not much space between the bed and dresser, and sink counter could use more space.   Would highly recommend for cleanliness and comfort!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r219307285-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>219307285</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Our life saver!</t>
+  </si>
+  <si>
+    <t>While vacationing in California, we had a horrendous experience at one of the hotels but that night while searching online, we were able to book a room at this Holiday Inn for the remainder of our stay and were quite pleased. Since my sister is an IHG member, she received a free upgrade to our room; it included a king sized bed and fridge which we put to good use. The cleaning staff was friendly and prompt, the pool area was quite relaxing and room service food was tasty (only negative is 18% gratuity is already included). There is plenty of parking and the location is only about 30 minutes from LA and other Cali attractions. Thanks to this hotel we were able to enjoy the rest of our stay and were sad to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Hotel M, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>While vacationing in California, we had a horrendous experience at one of the hotels but that night while searching online, we were able to book a room at this Holiday Inn for the remainder of our stay and were quite pleased. Since my sister is an IHG member, she received a free upgrade to our room; it included a king sized bed and fridge which we put to good use. The cleaning staff was friendly and prompt, the pool area was quite relaxing and room service food was tasty (only negative is 18% gratuity is already included). There is plenty of parking and the location is only about 30 minutes from LA and other Cali attractions. Thanks to this hotel we were able to enjoy the rest of our stay and were sad to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r218943986-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>218943986</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Nice Quiet Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel July 25 to July 27, 2014 and I find it delightful. No complimentary breakfast served in the morning but that is fine with us so we were forced to go out and find out what Southern California cuisine has to offer. Rooms were clean, a little outdated but provides for everything we needed. It even has a small refrigerator in the room. The hotel is tucked on an incline in a hill and there are ample parking space. Coffee in room was a little bit bland but at least, guests have that option. Overall, not bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r217498280-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>217498280</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Not Very Impressed</t>
+  </si>
+  <si>
+    <t>We stayed at this location during the July 4th weekend. The room they gave me was clean but very old/dated (definitely needs to be remodeled) and is facing the freeway so it gets lots of freeway noise. My 18 months old is a light sleeper, so I requested to be switched to a quieter room. However, the front desk told me to leave them my phone number so they can call me back if there is another room available,,, of course they never did.. When we checked out the next morning, the front desk take the room key without any smile on the face and didn't even asked how was our experience. I will not recommend this location to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded August 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this location during the July 4th weekend. The room they gave me was clean but very old/dated (definitely needs to be remodeled) and is facing the freeway so it gets lots of freeway noise. My 18 months old is a light sleeper, so I requested to be switched to a quieter room. However, the front desk told me to leave them my phone number so they can call me back if there is another room available,,, of course they never did.. When we checked out the next morning, the front desk take the room key without any smile on the face and didn't even asked how was our experience. I will not recommend this location to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r206552460-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>206552460</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>helped make my car travel more pleasant</t>
+  </si>
+  <si>
+    <t>After a long drive from Northern CA to Southern CA my family enjoyed a one night stay at this hotel. The room was bright and clean,  the bed was comfortable, little noise from the highway. Customer service was great. This would be a hotel I would consider staying at again. There is no dining within walking distance and driving to restaraunts can be a bit tricky for somone not familiar with the area (and no GPS).</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r201316707-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>201316707</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Old Style Holiday In in Gift Wrap</t>
+  </si>
+  <si>
+    <t>This hotel gives an excellent first impression. The exterior looks like the newly reinvented Holiday Inn hotels and the lobby would also lead one to believe that you are going to experience the new Holiday Inn. But once you get into the rooms, it feels like Holiday Inn circa 1995. The furniture is scratched, bumped and tired. The bathroom is in the old style. If there was a Holiday Inn Express nearby, this hotel would not be able to compete. The hotel is not only in plain view of a couple LA Freeways, you can hear the symphony of the semis all night long. On the plus side, I thought that the staff were very friendly and worked hard to help our guest experience. The beds were reasonably comfortable and the price was reasonable for the eastern I-10 corridor.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded May 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2014</t>
+  </si>
+  <si>
+    <t>This hotel gives an excellent first impression. The exterior looks like the newly reinvented Holiday Inn hotels and the lobby would also lead one to believe that you are going to experience the new Holiday Inn. But once you get into the rooms, it feels like Holiday Inn circa 1995. The furniture is scratched, bumped and tired. The bathroom is in the old style. If there was a Holiday Inn Express nearby, this hotel would not be able to compete. The hotel is not only in plain view of a couple LA Freeways, you can hear the symphony of the semis all night long. On the plus side, I thought that the staff were very friendly and worked hard to help our guest experience. The beds were reasonably comfortable and the price was reasonable for the eastern I-10 corridor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r200143676-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>200143676</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Old Building, Great Staff</t>
+  </si>
+  <si>
+    <t>Every single employee I came in contact with from front desk to housekeeping to the restaurant was courteous and professional.  Smiles abounded and I was routinely asked if I was happy with everything.The building is old and needs updating - especially the bathrooms.  My tub apparently had a leak around the drain that was only apparent after taking a long bath and draining the tub.  Rather than fix it and/or move me, the response was to unscrew the plug to keep me from taking another bath.  There is also obvious staining from previous water stains.The employees are great.  I would prefer to have a bathroom in which I can enjoy a bath without having the staff knock on my door and inform me that my tub leaked into the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Art B, Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Every single employee I came in contact with from front desk to housekeeping to the restaurant was courteous and professional.  Smiles abounded and I was routinely asked if I was happy with everything.The building is old and needs updating - especially the bathrooms.  My tub apparently had a leak around the drain that was only apparent after taking a long bath and draining the tub.  Rather than fix it and/or move me, the response was to unscrew the plug to keep me from taking another bath.  There is also obvious staining from previous water stains.The employees are great.  I would prefer to have a bathroom in which I can enjoy a bath without having the staff knock on my door and inform me that my tub leaked into the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r198458351-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>198458351</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Reasonable Choice</t>
+  </si>
+  <si>
+    <t>The good news and the bad news is it is freeway-close. If you think the noise will bother you, ask for a room on the parking lot side vs the freeway side. The rooms were kept reasonably clean and there was always a new bottle of water on top of the fridge. The beds are very firm so if you have problems with firm mattresses, an egg crate can help. This is one of the very few hotels that have smoking rooms so if that bothers you, ask for any floor other than the 3rd floor. One minor issue we had was the noisy A/C unit. But it worked very well. After the first night, I was able to get used to it's noisy cycles. Tip: If you want breakfast, you can skip the restaurant in the lobby and go west on Golden Springs a few short blocks to the Coco's Restaurant &amp; Bakery on your right. They have a nice breakfast menu including gluten-free pancakes if you must avoid gluten but envy what everyone else is having. They aren't the greatest GF pancakes I've had but with some added sweetness (powdered sugar or syrup), they'll do.MoreShow less</t>
+  </si>
+  <si>
+    <t>The good news and the bad news is it is freeway-close. If you think the noise will bother you, ask for a room on the parking lot side vs the freeway side. The rooms were kept reasonably clean and there was always a new bottle of water on top of the fridge. The beds are very firm so if you have problems with firm mattresses, an egg crate can help. This is one of the very few hotels that have smoking rooms so if that bothers you, ask for any floor other than the 3rd floor. One minor issue we had was the noisy A/C unit. But it worked very well. After the first night, I was able to get used to it's noisy cycles. Tip: If you want breakfast, you can skip the restaurant in the lobby and go west on Golden Springs a few short blocks to the Coco's Restaurant &amp; Bakery on your right. They have a nice breakfast menu including gluten-free pancakes if you must avoid gluten but envy what everyone else is having. They aren't the greatest GF pancakes I've had but with some added sweetness (powdered sugar or syrup), they'll do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r196808242-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>196808242</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Blood on comforter.</t>
+  </si>
+  <si>
+    <t>When we arrived, the overall atmosphere of the entire hotel was very un-hospitable.  The front desk personnel were acting as if they were doing us a favor and were very lukewarm in attitude.  The smell in the lobby was so strong of air freshener that it made me sick due to allergies to specific scents.  The rooms are extremely small, the beds are not much wider than a twin.  The room appeared clean until we pulled back the covers and noticed dried blood on the edge of the down comforter.  I called the front desk immediately and again, they were non-apologetic sounding as if I was making a mountain out of mole hill.  I didn't ask to be moved, just asked for clean linens.  The housekeeper that arrived was extremely apologetic and very quickly removed the soiled linen and brought us new, clean ones.  Her name was Florabel and she is the reason for the 3 stars instead of 1.  Check-out was quick and easy and the beds were comfortable.  I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>When we arrived, the overall atmosphere of the entire hotel was very un-hospitable.  The front desk personnel were acting as if they were doing us a favor and were very lukewarm in attitude.  The smell in the lobby was so strong of air freshener that it made me sick due to allergies to specific scents.  The rooms are extremely small, the beds are not much wider than a twin.  The room appeared clean until we pulled back the covers and noticed dried blood on the edge of the down comforter.  I called the front desk immediately and again, they were non-apologetic sounding as if I was making a mountain out of mole hill.  I didn't ask to be moved, just asked for clean linens.  The housekeeper that arrived was extremely apologetic and very quickly removed the soiled linen and brought us new, clean ones.  Her name was Florabel and she is the reason for the 3 stars instead of 1.  Check-out was quick and easy and the beds were comfortable.  I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r195139807-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>195139807</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Decent Hotel, But on Busy Freeway</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights while on a tour to attend the Rose Parade in Pasadena on New Year's Day, 2014.  Our stay was decent except for the loud, unrelenting traffic noise outside.  Our room was next to a very busy freeway and because the hotel was sold out, we were unable to change rooms.  We got a terrible nights sleep the first night and it was only slightly better the following night.  I would guess that the noise was more tolerable in the rooms on the other side of the hotel.Besides that, the hotel was pretty decent.  The room was neat and clean, but could have used an updating.  Also, the patio door did not lock properly, but since we were not on the ground floor, we were not too worried.  One thing we didn't like (but is common in some hotel rooms) was that the sink was right inside the bedroom.  Thus, the early-riser cannot help disturbing the late-sleeper.  Only the shower and toilet could be closed off behind a door.However, the breakfast was wonderful.  It featured several hot items, which were very tasty, cold cereal, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights while on a tour to attend the Rose Parade in Pasadena on New Year's Day, 2014.  Our stay was decent except for the loud, unrelenting traffic noise outside.  Our room was next to a very busy freeway and because the hotel was sold out, we were unable to change rooms.  We got a terrible nights sleep the first night and it was only slightly better the following night.  I would guess that the noise was more tolerable in the rooms on the other side of the hotel.Besides that, the hotel was pretty decent.  The room was neat and clean, but could have used an updating.  Also, the patio door did not lock properly, but since we were not on the ground floor, we were not too worried.  One thing we didn't like (but is common in some hotel rooms) was that the sink was right inside the bedroom.  Thus, the early-riser cannot help disturbing the late-sleeper.  Only the shower and toilet could be closed off behind a door.However, the breakfast was wonderful.  It featured several hot items, which were very tasty, cold cereal, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r178722899-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>178722899</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Great place when we are in town</t>
+  </si>
+  <si>
+    <t>Great location for what we needed-wedding and visiting friends and family in the area. Clean, great rate and smiling staff. We didn't have a breakfast package but did pay for the buffet one day. Fresh food and they were very kind to bring me something from the kitchen that wasn't out. Awesome water pressure in the shower and lots of toilettres. The room seemed small but I think it is because the ceiling is a little lower than other hotels. We will definitely return. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Art B, General Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Great location for what we needed-wedding and visiting friends and family in the area. Clean, great rate and smiling staff. We didn't have a breakfast package but did pay for the buffet one day. Fresh food and they were very kind to bring me something from the kitchen that wasn't out. Awesome water pressure in the shower and lots of toilettres. The room seemed small but I think it is because the ceiling is a little lower than other hotels. We will definitely return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r172222180-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>172222180</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Good stay and good location</t>
+  </si>
+  <si>
+    <t>I was here for a week on business and have almost zero complaints.  The room was clean and the pillow top mattress was oh so comfy.  Front desk service was good (I was recognized as a Priority Club member and got a room upgrade).  I had a room on the freeway side but barely ever noticed the noise others mention.  There is a restaurant/bar on site with an outdoor patio.  The food is just average, not bad but not spectacular.  A good substitute though if you don't feel like going out.  Just down the road in Rowland Heights there are a LOT of good Asian places to eat, and you've got an In N Out burger about a mile away (a must try if you've never had them).  The only complaint about the room is that the bathroom light took about 5-10 minutes to get to full brightness (so I just left it on most of the time) and the bathroom door would not stay open (it always wanted to close on its own).  Other than that, great stay and would definitely stay here again if in the area.  Didn't try the breakfast but it was always crowded when I was leaving for work so I'm guessing it's ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I was here for a week on business and have almost zero complaints.  The room was clean and the pillow top mattress was oh so comfy.  Front desk service was good (I was recognized as a Priority Club member and got a room upgrade).  I had a room on the freeway side but barely ever noticed the noise others mention.  There is a restaurant/bar on site with an outdoor patio.  The food is just average, not bad but not spectacular.  A good substitute though if you don't feel like going out.  Just down the road in Rowland Heights there are a LOT of good Asian places to eat, and you've got an In N Out burger about a mile away (a must try if you've never had them).  The only complaint about the room is that the bathroom light took about 5-10 minutes to get to full brightness (so I just left it on most of the time) and the bathroom door would not stay open (it always wanted to close on its own).  Other than that, great stay and would definitely stay here again if in the area.  Didn't try the breakfast but it was always crowded when I was leaving for work so I'm guessing it's ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r168301312-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>168301312</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Convenient to City of Industry</t>
+  </si>
+  <si>
+    <t>All in all a pretty good hotel.  Staff all very friendly, decent restaurant on site for breakfast, lunch or dinner.  There is a decent sized outdoor pool and a small fitness center with universal set and a few cardio machines.My group will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r155198316-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>155198316</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, convenient for my business travel</t>
+  </si>
+  <si>
+    <t>The staff here is very helpful and courteous. Good breakfast buffet. The rooms are comfortable. If you have a room on the freeway side, just turn on the fan onthe heater/air conditioner to provide a little 'white noise' to cover up the traffic sounds. This is my thirdt stay at this location and I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Art B, General Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2013</t>
+  </si>
+  <si>
+    <t>The staff here is very helpful and courteous. Good breakfast buffet. The rooms are comfortable. If you have a room on the freeway side, just turn on the fan onthe heater/air conditioner to provide a little 'white noise' to cover up the traffic sounds. This is my thirdt stay at this location and I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r152841389-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>152841389</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn D Bar</t>
+  </si>
+  <si>
+    <t>Request hill side if the view of a busy freeway is not your thing.  Beware you need a car to go almost anywhere.  Housekeeping is polite and swift.Seems to have a large Asian clientle base.  Did not try the room services so no comments for that.  Not an easily accessible place if not driving.a better option amongs the accommondations in the region except maybe pacific palms resorts, but that's another tier.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Art B, General Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Request hill side if the view of a busy freeway is not your thing.  Beware you need a car to go almost anywhere.  Housekeeping is polite and swift.Seems to have a large Asian clientle base.  Did not try the room services so no comments for that.  Not an easily accessible place if not driving.a better option amongs the accommondations in the region except maybe pacific palms resorts, but that's another tier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r148190945-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>148190945</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>Upon check in, I had to wait a little bit because I checked in late night and there were only one staff present. That was not an issue. He helped me with my reservation and also helped me with all my questions. He even passed my requests to the staff of next morning which I appreciated. Received an upgrade for being priority club member. The room was excellent.I have to give credit to the staffs. They were all very helpful. Even though the location is not that convenient but it's definitely on my return list.The freeway wasn't that noisy. However if you are sensitive to sound, ask for a room not facing the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Upon check in, I had to wait a little bit because I checked in late night and there were only one staff present. That was not an issue. He helped me with my reservation and also helped me with all my questions. He even passed my requests to the staff of next morning which I appreciated. Received an upgrade for being priority club member. The room was excellent.I have to give credit to the staffs. They were all very helpful. Even though the location is not that convenient but it's definitely on my return list.The freeway wasn't that noisy. However if you are sensitive to sound, ask for a room not facing the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r140650290-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>140650290</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Nice, Clean Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only drawback is that they don't offer any breakfast. The swimming pool was a little dirty with some debris floating in it.  </t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r138476056-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>138476056</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Don't go!!!</t>
+  </si>
+  <si>
+    <t>Got a good price from Hotwire for $70/night. The hotel was nice from the appearance but the room is really in bad shape. The toilet doesn't work , water in sink and bath tub doesn't go down.I had to call maintenance to come and try to fix it. It was bad and the guy did the best he could, the toilet still take time to "flush" down...we had three people in the room,and I had to listen to the complains from other two friends...it was gross.Oh and the two beds are full size and not queen beds.If you have 3-4 people in that room, so it would be very crowded. And we killed a big spider.... Anyway, I could have extended the stay with the same room rate, but we just couldn't wait to leave.Anyway, stay away. It's an old property and it's poor maintained. The front desks were friendly, but I would not want to deal with the toilet problem during my vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got a good price from Hotwire for $70/night. The hotel was nice from the appearance but the room is really in bad shape. The toilet doesn't work , water in sink and bath tub doesn't go down.I had to call maintenance to come and try to fix it. It was bad and the guy did the best he could, the toilet still take time to "flush" down...we had three people in the room,and I had to listen to the complains from other two friends...it was gross.Oh and the two beds are full size and not queen beds.If you have 3-4 people in that room, so it would be very crowded. And we killed a big spider.... Anyway, I could have extended the stay with the same room rate, but we just couldn't wait to leave.Anyway, stay away. It's an old property and it's poor maintained. The front desks were friendly, but I would not want to deal with the toilet problem during my vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r137649942-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>137649942</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Tacky, poorly located</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel because I was doing business in an office on the other side of the road for a couple of days. But I would not choose to stay here for any other reason. Luckily, my room overlooked the car park rather than the very noisy freeway close by on the other side. The lobby, restaurant and public areas all need smartening up. I had dinner with my client on the terrace of the hotel restaurant on the first night. Big mistake. Our food was poor (a rubbery steak smothered in something unpleasant in my case), the place stank of cigarette smoke and the noise from the nearby freeway intruded. We went to a restaurant 10 minutes drive away for the second night. The choice and quality of food at breakfast was limited and poor respectively. Surely a hotel in California could have some decent fruit juices. The only bread available was some tasteless sliced stuff. I am really glad I was not paying for this hotel myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Select Diamond Bar, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel because I was doing business in an office on the other side of the road for a couple of days. But I would not choose to stay here for any other reason. Luckily, my room overlooked the car park rather than the very noisy freeway close by on the other side. The lobby, restaurant and public areas all need smartening up. I had dinner with my client on the terrace of the hotel restaurant on the first night. Big mistake. Our food was poor (a rubbery steak smothered in something unpleasant in my case), the place stank of cigarette smoke and the noise from the nearby freeway intruded. We went to a restaurant 10 minutes drive away for the second night. The choice and quality of food at breakfast was limited and poor respectively. Surely a hotel in California could have some decent fruit juices. The only bread available was some tasteless sliced stuff. I am really glad I was not paying for this hotel myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r129489775-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>129489775</t>
+  </si>
+  <si>
+    <t>05/06/2012</t>
+  </si>
+  <si>
+    <t>will not come back</t>
+  </si>
+  <si>
+    <t>The hotel room is in good condition, but it is really noisy on the highway side. I made the reservation via Expedia and requested a quiet room. but the front desk staff gave me a highway side room and told me that if I want to have a quiet room, I should book through holiday inn directly next time, even though they have quiet room available. I felt being punished by booking via Expedia. I end up did not sleep at all in that noisy room. I will certainly not coming back again!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r127945614-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>127945614</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Repeat guest</t>
+  </si>
+  <si>
+    <t>I accompanied my husband on business for 4 nights so I was in the room most of the time.  What a pleasant surprise this place was!  We had great food in the restaurant each night, lively atmosphere but comfortable, intimate seating and friendly service.  Breakfast was a full spread, not the sparse, instant type you usually expect.  The pool was heated and chocolate chip cookies were always sitting on the reception counterl;  daily newspapers waiting and coffee usually in the lobby.  The location was great:  if you are a walker simply follow the sidewalk up and around the office loop as it's scenic, clean and safe.  This is so close to good retail as well and the room was great:  comfortable king bed, friendly staff and great front desk help and enthusiasm.  Drawbacks:  no microwaves in the room and we were on highway side of hotel with constant traffic at the convergence of 2 interstates, so it was noisy.  We are country dwellers so we found this disturbing at first but then we got used to it and didn't bother us.  Would definitely stay here again.  Free Wi-Fi was offered as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I accompanied my husband on business for 4 nights so I was in the room most of the time.  What a pleasant surprise this place was!  We had great food in the restaurant each night, lively atmosphere but comfortable, intimate seating and friendly service.  Breakfast was a full spread, not the sparse, instant type you usually expect.  The pool was heated and chocolate chip cookies were always sitting on the reception counterl;  daily newspapers waiting and coffee usually in the lobby.  The location was great:  if you are a walker simply follow the sidewalk up and around the office loop as it's scenic, clean and safe.  This is so close to good retail as well and the room was great:  comfortable king bed, friendly staff and great front desk help and enthusiasm.  Drawbacks:  no microwaves in the room and we were on highway side of hotel with constant traffic at the convergence of 2 interstates, so it was noisy.  We are country dwellers so we found this disturbing at first but then we got used to it and didn't bother us.  Would definitely stay here again.  Free Wi-Fi was offered as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r127675640-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>127675640</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Holiday Inn Diamond Bar.  The check-in process was seamless, the staff very courteous, responsive, helpful, and accomodating.  Smiling faces, always with a kind greeting upon entering and exiting the hotel.  The room was beautiful.  Fourth floor, non-smoking. In room coffee and tea maker. Based on the reviews, we requested a room on the hillside of the hotel. The air conditioner was not loud at all. The beds and pillows were so comfortable. There were several restaurants near the hotel such as In 'N Out, Chili's, Jack in the Box, Starbucks, McDonalds, Bob's Big Boy, etc. The hotel restaurant prices were between the $8-$12 range, very reasonable. Loved having the refrigerator in the room. The hotel lobby was very clean. There is a small convenience store in the lobby, but also an Albertson's grocery store and Target nearby, so it makes better sense to purchase snacks and drinks for your room.  Calvary Chapel Christian Church is 2 minutes away and St. Denis Catholic Church, 5 minutes away.  Freeways are easy-on and easy off. While at the lovely pool, or on the outside dining patio, you can hear the traffic, but that's the city.  Downtown L.A. is approx. 20 min. West Covina, 10 min., Santa Monica, 30 to 40 min. We loved everything about this hotel and will stay here again whenever we visit the L.A. area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Holiday Inn Diamond Bar.  The check-in process was seamless, the staff very courteous, responsive, helpful, and accomodating.  Smiling faces, always with a kind greeting upon entering and exiting the hotel.  The room was beautiful.  Fourth floor, non-smoking. In room coffee and tea maker. Based on the reviews, we requested a room on the hillside of the hotel. The air conditioner was not loud at all. The beds and pillows were so comfortable. There were several restaurants near the hotel such as In 'N Out, Chili's, Jack in the Box, Starbucks, McDonalds, Bob's Big Boy, etc. The hotel restaurant prices were between the $8-$12 range, very reasonable. Loved having the refrigerator in the room. The hotel lobby was very clean. There is a small convenience store in the lobby, but also an Albertson's grocery store and Target nearby, so it makes better sense to purchase snacks and drinks for your room.  Calvary Chapel Christian Church is 2 minutes away and St. Denis Catholic Church, 5 minutes away.  Freeways are easy-on and easy off. While at the lovely pool, or on the outside dining patio, you can hear the traffic, but that's the city.  Downtown L.A. is approx. 20 min. West Covina, 10 min., Santa Monica, 30 to 40 min. We loved everything about this hotel and will stay here again whenever we visit the L.A. area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r125417402-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>125417402</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Great service.  Will be back.</t>
+  </si>
+  <si>
+    <t>In short, this will be the hotel that my wife and I stay next time we visit the Diamond Bar area.The front desk went above and beyond when it comes to the check-in process.  There is also an empty fridge provided in the room, and not every hotel has this feature (even when it’s a 5-star hotel).  Overall, the price is fair for this 3-star hotel at where it’s located.  We are very pleased and will recommend the hotel to our friends.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r123749198-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>123749198</t>
+  </si>
+  <si>
+    <t>01/28/2012</t>
+  </si>
+  <si>
+    <t>Business Hotel Only</t>
+  </si>
+  <si>
+    <t>OK, only use this hotel for business.  It literally overlooks the 60 and 57 freeways.  Make sure you get a room facing the mountain side (unless you want to be entertained by watch LA freeway traffic from your hotel window!).  The rooms are clean and well maintained.  Don't expect anything fancy here.  They have nice sized flat screen TVs and Dish satellite service.  Breakfast is decent.  The freeway noise level depends on your room location.  All the staff I met were wonderful.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r119168257-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>119168257</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>Rooms are small, but comfortable</t>
+  </si>
+  <si>
+    <t>My room faced the parking lot so I had no complaints about freeway noise.  However I was unpleasantly surprised to discover that the executive rooms are not as spacious as the pictures may lead to believe.  As it turns out I paid extra for a bigger TV set, not for a bigger room. To thier credit the info is on the on-line room description--unfortunately, I did not look closely enough at the other room descriptions at the time I booked to realize that the only difference between other rooms and the executive room was the size of the tv set.  Other than that my 3 night stay was very pleasant and comfortable.  The on-site restaurant was good and definitely a plus after a long work day.  My suggestion for improvement:  pls ask staff at the front desk to smile!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>My room faced the parking lot so I had no complaints about freeway noise.  However I was unpleasantly surprised to discover that the executive rooms are not as spacious as the pictures may lead to believe.  As it turns out I paid extra for a bigger TV set, not for a bigger room. To thier credit the info is on the on-line room description--unfortunately, I did not look closely enough at the other room descriptions at the time I booked to realize that the only difference between other rooms and the executive room was the size of the tv set.  Other than that my 3 night stay was very pleasant and comfortable.  The on-site restaurant was good and definitely a plus after a long work day.  My suggestion for improvement:  pls ask staff at the front desk to smile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r104503103-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>104503103</t>
+  </si>
+  <si>
+    <t>04/18/2011</t>
+  </si>
+  <si>
+    <t>GREAT PLACE TO GET YOUR ELECTRONIC STUFF BROKEN</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel and checked in. Upon entering my room things looked good and I plugged in my andriod tablet to charge. I left it in the room on the desk the next day as I went to work. I returned to find the tablet on the flooor with a broken screen. THe tablet cost me 60,000 holidya points to get so I went and talked to the manager. WHile admiting his housekeeping staff commited the erroe the best he would do refund 30,000 points or give me a free night. Both these options were unacceptable. I asked for a replacement or full refund of the points. The manager refused so I contacted guest services. The manager told guest services his housekeeping staff di not break the unit and he would not offer a replacement or points.STAY AWAY FROM THIS HOTEL IF YOU DO NOT WANT TO GET ANYTHING BROKEN.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel and checked in. Upon entering my room things looked good and I plugged in my andriod tablet to charge. I left it in the room on the desk the next day as I went to work. I returned to find the tablet on the flooor with a broken screen. THe tablet cost me 60,000 holidya points to get so I went and talked to the manager. WHile admiting his housekeeping staff commited the erroe the best he would do refund 30,000 points or give me a free night. Both these options were unacceptable. I asked for a replacement or full refund of the points. The manager refused so I contacted guest services. The manager told guest services his housekeeping staff di not break the unit and he would not offer a replacement or points.STAY AWAY FROM THIS HOTEL IF YOU DO NOT WANT TO GET ANYTHING BROKEN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r79982613-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>79982613</t>
+  </si>
+  <si>
+    <t>09/17/2010</t>
+  </si>
+  <si>
+    <t>OK, if you don't mind the noise</t>
+  </si>
+  <si>
+    <t>I worked in this area for many years and was aware of the freeway noise.  It didn't bother me as much as the noisy air conditioner and a refrigerator that sounded like it was percolating.The furniture arrangement was a little cramped and I didn't like having the bathroom sink in the room rather than separately in a bathroom.My husband ate breakfast in the restaurant and said it was pretty good.As far as location, it's in a nice area.  Maybe we should have taken the time to ask for another room that might have been a little quieter.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r71135614-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>71135614</t>
+  </si>
+  <si>
+    <t>07/16/2010</t>
+  </si>
+  <si>
+    <t>Great place for a meeting!</t>
+  </si>
+  <si>
+    <t>I thought this hotel was an excellent value.  It was clean and nicely decorated.  The food was very good.  Our meeting went beautifully, the staff did a good job.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r61261842-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>61261842</t>
+  </si>
+  <si>
+    <t>04/13/2010</t>
+  </si>
+  <si>
+    <t>Stay was ok, but could have been better</t>
+  </si>
+  <si>
+    <t>The rooms were nothing special. The location is more of a business area. Not much within walking distance, just a target &amp; 1 restaurant. The service could have definitely been better. It was horrible, but I just didn't find the customer service very friendly. Nothing was offered, nothing was asked. You didn't ask, you didn't get. It would have been nice to had friendly smiles at the front desk.It would also be nice to have a trash can in near the toilet because the sink is separate from the toilet &amp; shower.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r37037048-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>37037048</t>
+  </si>
+  <si>
+    <t>08/07/2009</t>
+  </si>
+  <si>
+    <t>Nice suburb of Los Angeles</t>
+  </si>
+  <si>
+    <t>We stayed for one night after an 11 hour flight from London to Los Angeles Airport. It took around 45 minutes to drive to the Holiday Inn Diamond Bar which is located in a pleasant Eastern suburb of Greater Los Angeles.Most of the reviews are accurate. The Queen bed double room that we had was really nice and beautifully clean. Freeway noise was an issue however we turned up the air conditioning unit to drown this out which really worked and we slept well.The hotel facilities are good with a really pleasant pool area and fountain, just a shame that the freeway is so close by. Parking is no problem with lots of spaces near to the hotel entrance.The staff were very helpful and the buffet breakfast was filling and well cooked.We would stay here again as the standard of the hotel was excellent, the only downside is the freeway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>We stayed for one night after an 11 hour flight from London to Los Angeles Airport. It took around 45 minutes to drive to the Holiday Inn Diamond Bar which is located in a pleasant Eastern suburb of Greater Los Angeles.Most of the reviews are accurate. The Queen bed double room that we had was really nice and beautifully clean. Freeway noise was an issue however we turned up the air conditioning unit to drown this out which really worked and we slept well.The hotel facilities are good with a really pleasant pool area and fountain, just a shame that the freeway is so close by. Parking is no problem with lots of spaces near to the hotel entrance.The staff were very helpful and the buffet breakfast was filling and well cooked.We would stay here again as the standard of the hotel was excellent, the only downside is the freeway noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r36132209-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>36132209</t>
+  </si>
+  <si>
+    <t>07/29/2009</t>
+  </si>
+  <si>
+    <t>Wedding Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights in July.  We had two king rooms booked but opted for two double rooms since the kings were all on the highway side of the hotel and were told they were noisy.  I enjoyed the pool and only saw one other woman there the whole time so it was nice.  We went to Brea and Orange and they were not a far drive at all.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r6809220-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>6809220</t>
+  </si>
+  <si>
+    <t>02/17/2007</t>
+  </si>
+  <si>
+    <t>I'll try the Ayres next time</t>
+  </si>
+  <si>
+    <t>After my 3-night stay, I must admit I was less than impressed. The bad simply outweighed the good. If available, next time I'll stay at the Ayres just down the street (I've stayed there before and had no problems whatsoever).
+First the good. The beds were very comfortable and the pillow variety was great (six made of either down or fiber). Though the TV channels were limited (only about 25), they did contain HBO and three ESPN stations (no PBS though). Although there was no sleep timer for the TV, it shut off automatically after about an hour (annoying at first but tolerable after I got used to it -- I just turned the TV off during a commercial to reset the the auto timer). Also, while the shower stall was a bit small, it had a great shower head at a high height (I'm 6'2") with strong water pressure. Finally, the on-site restaurant was crowded and noisy but the food and service were both very good.
+Now the bad. When we first checked in, the desk clerk tried to tell us the rate was $30 per night more than I was told when I made the reservations. I had to produce the notes I took while making the reservations to convince the desk clerk to give us the lower rate. Also, my room appeared dated and worn. The wallpaper seems to have been printed in the 1970s. The metal...After my 3-night stay, I must admit I was less than impressed. The bad simply outweighed the good. If available, next time I'll stay at the Ayres just down the street (I've stayed there before and had no problems whatsoever).First the good. The beds were very comfortable and the pillow variety was great (six made of either down or fiber). Though the TV channels were limited (only about 25), they did contain HBO and three ESPN stations (no PBS though). Although there was no sleep timer for the TV, it shut off automatically after about an hour (annoying at first but tolerable after I got used to it -- I just turned the TV off during a commercial to reset the the auto timer). Also, while the shower stall was a bit small, it had a great shower head at a high height (I'm 6'2") with strong water pressure. Finally, the on-site restaurant was crowded and noisy but the food and service were both very good.Now the bad. When we first checked in, the desk clerk tried to tell us the rate was $30 per night more than I was told when I made the reservations. I had to produce the notes I took while making the reservations to convince the desk clerk to give us the lower rate. Also, my room appeared dated and worn. The wallpaper seems to have been printed in the 1970s. The metal door jambs for the bathroom were rusted and in need of painting. While my room did not face the freeway (and I really did not hear much of the freeway noise that others have complained about), the Kleig lights used to light the hotel's exterior at night were bright enough to allow me to read in my room with no other lights on. The clock radio kept making this static-type noise every 30-45 minutes even though the radio wasn't turned on and the alarm wasn't set. I finally had to unplug the clock radio to get it to stop and used my watch for time and my cell phone for an alarm. Finally, and yes this is a tad nitpicky, the hotel offered only a USA today in the morning (which showed up only once during my 3-night stay) rather than offering either a local newspaper or the USA today.The sign in the hotel's lobby read "Owned by Oak Creek LP / Operated by Brighten Management". If I worked for either of these companies, I'm not sure that I would admit it after staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>After my 3-night stay, I must admit I was less than impressed. The bad simply outweighed the good. If available, next time I'll stay at the Ayres just down the street (I've stayed there before and had no problems whatsoever).
+First the good. The beds were very comfortable and the pillow variety was great (six made of either down or fiber). Though the TV channels were limited (only about 25), they did contain HBO and three ESPN stations (no PBS though). Although there was no sleep timer for the TV, it shut off automatically after about an hour (annoying at first but tolerable after I got used to it -- I just turned the TV off during a commercial to reset the the auto timer). Also, while the shower stall was a bit small, it had a great shower head at a high height (I'm 6'2") with strong water pressure. Finally, the on-site restaurant was crowded and noisy but the food and service were both very good.
+Now the bad. When we first checked in, the desk clerk tried to tell us the rate was $30 per night more than I was told when I made the reservations. I had to produce the notes I took while making the reservations to convince the desk clerk to give us the lower rate. Also, my room appeared dated and worn. The wallpaper seems to have been printed in the 1970s. The metal...After my 3-night stay, I must admit I was less than impressed. The bad simply outweighed the good. If available, next time I'll stay at the Ayres just down the street (I've stayed there before and had no problems whatsoever).First the good. The beds were very comfortable and the pillow variety was great (six made of either down or fiber). Though the TV channels were limited (only about 25), they did contain HBO and three ESPN stations (no PBS though). Although there was no sleep timer for the TV, it shut off automatically after about an hour (annoying at first but tolerable after I got used to it -- I just turned the TV off during a commercial to reset the the auto timer). Also, while the shower stall was a bit small, it had a great shower head at a high height (I'm 6'2") with strong water pressure. Finally, the on-site restaurant was crowded and noisy but the food and service were both very good.Now the bad. When we first checked in, the desk clerk tried to tell us the rate was $30 per night more than I was told when I made the reservations. I had to produce the notes I took while making the reservations to convince the desk clerk to give us the lower rate. Also, my room appeared dated and worn. The wallpaper seems to have been printed in the 1970s. The metal door jambs for the bathroom were rusted and in need of painting. While my room did not face the freeway (and I really did not hear much of the freeway noise that others have complained about), the Kleig lights used to light the hotel's exterior at night were bright enough to allow me to read in my room with no other lights on. The clock radio kept making this static-type noise every 30-45 minutes even though the radio wasn't turned on and the alarm wasn't set. I finally had to unplug the clock radio to get it to stop and used my watch for time and my cell phone for an alarm. Finally, and yes this is a tad nitpicky, the hotel offered only a USA today in the morning (which showed up only once during my 3-night stay) rather than offering either a local newspaper or the USA today.The sign in the hotel's lobby read "Owned by Oak Creek LP / Operated by Brighten Management". If I worked for either of these companies, I'm not sure that I would admit it after staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r4956729-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>4956729</t>
+  </si>
+  <si>
+    <t>04/09/2006</t>
+  </si>
+  <si>
+    <t>Not the best Holiday Inn</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay here or the Ayres which is just down the street. I opted for Holiday Inn due to my Priority membership. I'd probably do it again but didn't like the hotel that much.As others have stated, the hotel is next to the highway and that highway is VERY loud (or the windows are very thin).  I do not like noise when I sleep and found it difficult to cope with it.There is no free breakfast like at the Ayres.  The Ayres also has a social hour with free appetizers from 5-7pm.There is free wireless internet at Holiday Inn while it is $5/day at the Ayres. (which is crazy).The staff was fine. Rooms were clean.  Mostly fast food places nearby.  Like I said, I'd probably use it again but that is more due to priority rewards and the internet thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay here or the Ayres which is just down the street. I opted for Holiday Inn due to my Priority membership. I'd probably do it again but didn't like the hotel that much.As others have stated, the hotel is next to the highway and that highway is VERY loud (or the windows are very thin).  I do not like noise when I sleep and found it difficult to cope with it.There is no free breakfast like at the Ayres.  The Ayres also has a social hour with free appetizers from 5-7pm.There is free wireless internet at Holiday Inn while it is $5/day at the Ayres. (which is crazy).The staff was fine. Rooms were clean.  Mostly fast food places nearby.  Like I said, I'd probably use it again but that is more due to priority rewards and the internet thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r4728004-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>4728004</t>
+  </si>
+  <si>
+    <t>03/22/2006</t>
+  </si>
+  <si>
+    <t>Below average for Holiday Inn</t>
+  </si>
+  <si>
+    <t>I stayed two nights at this property while attending a business meeting at the South Coast AQMD.  I travelled with two colleagues who were also staying at this location.  Upon arrival, the hotel lobby was clean and inviting.  The staff were all right, but gave little to no information about breakfast, gym or pool ammenities.  Each of my colleagues and I had to request a room change at least once due to either traffic noise, smoky air (in a non-smoking room) or a window that wouldn't close.  This hotel is very close to the freeway and apparently does not have double-paned windows, so the traffic noise drones day and night without relief.  Also, it seems to be used for bus tour groups, which tend to be noisy groups of people who clog the lobby.  I ate breakfast at the hotel both days, ordering oatmeal and toast.  The first day my meal was presented nicely; the oatmeal bowl placed on a plate lined with a doily and a small cup of brown sugar.  But the second day I basically had a bowl layed in front of me and asked as an afterthought if I needed brown sugar.
+The rooms themselves are fairly modern, clean and average.  For me, the traffic noise was almost unbearable (and I am a heavy sleeper normally), even on the opposite side from the freeway.
+Another colleague stayed just up the street at the Ayers Suites and...I stayed two nights at this property while attending a business meeting at the South Coast AQMD.  I travelled with two colleagues who were also staying at this location.  Upon arrival, the hotel lobby was clean and inviting.  The staff were all right, but gave little to no information about breakfast, gym or pool ammenities.  Each of my colleagues and I had to request a room change at least once due to either traffic noise, smoky air (in a non-smoking room) or a window that wouldn't close.  This hotel is very close to the freeway and apparently does not have double-paned windows, so the traffic noise drones day and night without relief.  Also, it seems to be used for bus tour groups, which tend to be noisy groups of people who clog the lobby.  I ate breakfast at the hotel both days, ordering oatmeal and toast.  The first day my meal was presented nicely; the oatmeal bowl placed on a plate lined with a doily and a small cup of brown sugar.  But the second day I basically had a bowl layed in front of me and asked as an afterthought if I needed brown sugar.The rooms themselves are fairly modern, clean and average.  For me, the traffic noise was almost unbearable (and I am a heavy sleeper normally), even on the opposite side from the freeway.Another colleague stayed just up the street at the Ayers Suites and had nothing but good things to say about her stay.  Breakfast was included and cooked to order, the room was quiet and large -- all for about $10 more per night.  I will stay at the Ayers next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed two nights at this property while attending a business meeting at the South Coast AQMD.  I travelled with two colleagues who were also staying at this location.  Upon arrival, the hotel lobby was clean and inviting.  The staff were all right, but gave little to no information about breakfast, gym or pool ammenities.  Each of my colleagues and I had to request a room change at least once due to either traffic noise, smoky air (in a non-smoking room) or a window that wouldn't close.  This hotel is very close to the freeway and apparently does not have double-paned windows, so the traffic noise drones day and night without relief.  Also, it seems to be used for bus tour groups, which tend to be noisy groups of people who clog the lobby.  I ate breakfast at the hotel both days, ordering oatmeal and toast.  The first day my meal was presented nicely; the oatmeal bowl placed on a plate lined with a doily and a small cup of brown sugar.  But the second day I basically had a bowl layed in front of me and asked as an afterthought if I needed brown sugar.
+The rooms themselves are fairly modern, clean and average.  For me, the traffic noise was almost unbearable (and I am a heavy sleeper normally), even on the opposite side from the freeway.
+Another colleague stayed just up the street at the Ayers Suites and...I stayed two nights at this property while attending a business meeting at the South Coast AQMD.  I travelled with two colleagues who were also staying at this location.  Upon arrival, the hotel lobby was clean and inviting.  The staff were all right, but gave little to no information about breakfast, gym or pool ammenities.  Each of my colleagues and I had to request a room change at least once due to either traffic noise, smoky air (in a non-smoking room) or a window that wouldn't close.  This hotel is very close to the freeway and apparently does not have double-paned windows, so the traffic noise drones day and night without relief.  Also, it seems to be used for bus tour groups, which tend to be noisy groups of people who clog the lobby.  I ate breakfast at the hotel both days, ordering oatmeal and toast.  The first day my meal was presented nicely; the oatmeal bowl placed on a plate lined with a doily and a small cup of brown sugar.  But the second day I basically had a bowl layed in front of me and asked as an afterthought if I needed brown sugar.The rooms themselves are fairly modern, clean and average.  For me, the traffic noise was almost unbearable (and I am a heavy sleeper normally), even on the opposite side from the freeway.Another colleague stayed just up the street at the Ayers Suites and had nothing but good things to say about her stay.  Breakfast was included and cooked to order, the room was quiet and large -- all for about $10 more per night.  I will stay at the Ayers next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r3357293-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>3357293</t>
+  </si>
+  <si>
+    <t>04/13/2005</t>
+  </si>
+  <si>
+    <t>wonderful stay at the holiday Inn select Diamond BAr</t>
+  </si>
+  <si>
+    <t>Staff was very helpful and friendly! The room was very nice and clean, had a wonderful at the bar.  If you are visiting Diamond Bar, this is the hotel to stay!</t>
+  </si>
+  <si>
+    <t>April 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r2887080-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>2887080</t>
+  </si>
+  <si>
+    <t>12/15/2004</t>
+  </si>
+  <si>
+    <t>It was great</t>
+  </si>
+  <si>
+    <t>The hotel Staff was the best I have seen in a long time. We checked in and were told about DB's Bar and grille the Restaurant on property. I had dinner there that night and Armando and Tanya were great and the food was the best I have had at a hotel. The hotel had just replaced the carpet and put in new bed spreads and the rooms were very clean. I will always stay at holiday in select when Im in the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r2484548-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
+  </si>
+  <si>
+    <t>2484548</t>
+  </si>
+  <si>
+    <t>08/22/2004</t>
+  </si>
+  <si>
+    <t>Service was lacking even for a Holiday Inn</t>
+  </si>
+  <si>
+    <t>Our stay at the Holiday Inn Select in Diamond Bar was quite a disappointment.  The hotel lobby and area were fine, and the room was what we expected for a Holiday Inn.  However, the staff and service was horrbible.  We had made a reservation and paid in advance through the holiday inn webpage, in order to get a good rate.  When we arrived and tried to check-in though, they raised the rate.  After 30-minutes of talking with multiple staff members/managers, we were able to sort things out.  Thank goodness I had printed out our e-mail confirmation.When we got to the room, the bathroom light didn't work, and there were dirty towels in there still.  We did have it cleaned up, after we alerted the front desk, but were shocked by their unapologetic attitude.  The most atrocious thing that happened though was that I had a brand new shirt that I bought on the trip stolen, out of my luggage.  I didn't discover that it was missing until I got home, so I don't know if the hotel would have done something about it.  The room and beds were clean enough, but for the price you may want to try a different hotel.  If you do stay here, make sure you watch your belongings.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay at the Holiday Inn Select in Diamond Bar was quite a disappointment.  The hotel lobby and area were fine, and the room was what we expected for a Holiday Inn.  However, the staff and service was horrbible.  We had made a reservation and paid in advance through the holiday inn webpage, in order to get a good rate.  When we arrived and tried to check-in though, they raised the rate.  After 30-minutes of talking with multiple staff members/managers, we were able to sort things out.  Thank goodness I had printed out our e-mail confirmation.When we got to the room, the bathroom light didn't work, and there were dirty towels in there still.  We did have it cleaned up, after we alerted the front desk, but were shocked by their unapologetic attitude.  The most atrocious thing that happened though was that I had a brand new shirt that I bought on the trip stolen, out of my luggage.  I didn't discover that it was missing until I got home, so I don't know if the hotel would have done something about it.  The room and beds were clean enough, but for the price you may want to try a different hotel.  If you do stay here, make sure you watch your belongings.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2436,4869 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>187</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>196</v>
+      </c>
+      <c r="X18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>221</v>
+      </c>
+      <c r="O21" t="s">
+        <v>170</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>222</v>
+      </c>
+      <c r="X21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>230</v>
+      </c>
+      <c r="X22" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s">
+        <v>170</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>239</v>
+      </c>
+      <c r="X23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>248</v>
+      </c>
+      <c r="X24" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s">
+        <v>255</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>257</v>
+      </c>
+      <c r="X25" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s">
+        <v>264</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>265</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>266</v>
+      </c>
+      <c r="X26" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" t="s">
+        <v>273</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>274</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>275</v>
+      </c>
+      <c r="X27" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" t="s">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s">
+        <v>282</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>283</v>
+      </c>
+      <c r="O28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>288</v>
+      </c>
+      <c r="J29" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" t="s">
+        <v>291</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>292</v>
+      </c>
+      <c r="O29" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>293</v>
+      </c>
+      <c r="X29" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" t="s">
+        <v>298</v>
+      </c>
+      <c r="K30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L30" t="s">
+        <v>300</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>301</v>
+      </c>
+      <c r="X30" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>305</v>
+      </c>
+      <c r="J31" t="s">
+        <v>306</v>
+      </c>
+      <c r="K31" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s">
+        <v>308</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>311</v>
+      </c>
+      <c r="J32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K32" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>315</v>
+      </c>
+      <c r="O32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>316</v>
+      </c>
+      <c r="X32" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" t="s">
+        <v>323</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>324</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>325</v>
+      </c>
+      <c r="X33" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>329</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" t="s">
+        <v>331</v>
+      </c>
+      <c r="L34" t="s">
+        <v>332</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>324</v>
+      </c>
+      <c r="O34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>333</v>
+      </c>
+      <c r="X34" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>337</v>
+      </c>
+      <c r="J35" t="s">
+        <v>338</v>
+      </c>
+      <c r="K35" t="s">
+        <v>339</v>
+      </c>
+      <c r="L35" t="s">
+        <v>340</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s">
+        <v>342</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>343</v>
+      </c>
+      <c r="X35" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>347</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>348</v>
+      </c>
+      <c r="L36" t="s">
+        <v>349</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>343</v>
+      </c>
+      <c r="X36" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>352</v>
+      </c>
+      <c r="J37" t="s">
+        <v>353</v>
+      </c>
+      <c r="K37" t="s">
+        <v>354</v>
+      </c>
+      <c r="L37" t="s">
+        <v>355</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" t="s">
+        <v>359</v>
+      </c>
+      <c r="K38" t="s">
+        <v>360</v>
+      </c>
+      <c r="L38" t="s">
+        <v>361</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>362</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>363</v>
+      </c>
+      <c r="X38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O39" t="s">
+        <v>342</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>371</v>
+      </c>
+      <c r="X39" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>374</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>378</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>379</v>
+      </c>
+      <c r="O40" t="s">
+        <v>170</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>380</v>
+      </c>
+      <c r="X40" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" t="s">
+        <v>385</v>
+      </c>
+      <c r="K41" t="s">
+        <v>386</v>
+      </c>
+      <c r="L41" t="s">
+        <v>387</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>388</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>389</v>
+      </c>
+      <c r="X41" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" t="s">
+        <v>394</v>
+      </c>
+      <c r="K42" t="s">
+        <v>395</v>
+      </c>
+      <c r="L42" t="s">
+        <v>396</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>388</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>402</v>
+      </c>
+      <c r="X43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>412</v>
+      </c>
+      <c r="J45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" t="s">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>416</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>417</v>
+      </c>
+      <c r="X45" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K46" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>425</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>426</v>
+      </c>
+      <c r="X46" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" t="s">
+        <v>432</v>
+      </c>
+      <c r="L47" t="s">
+        <v>433</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>170</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>426</v>
+      </c>
+      <c r="X47" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>436</v>
+      </c>
+      <c r="J48" t="s">
+        <v>437</v>
+      </c>
+      <c r="K48" t="s">
+        <v>438</v>
+      </c>
+      <c r="L48" t="s">
+        <v>439</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>440</v>
+      </c>
+      <c r="X48" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>444</v>
+      </c>
+      <c r="J49" t="s">
+        <v>445</v>
+      </c>
+      <c r="K49" t="s">
+        <v>446</v>
+      </c>
+      <c r="L49" t="s">
+        <v>447</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>448</v>
+      </c>
+      <c r="O49" t="s">
+        <v>342</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>449</v>
+      </c>
+      <c r="X49" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>453</v>
+      </c>
+      <c r="J50" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" t="s">
+        <v>455</v>
+      </c>
+      <c r="L50" t="s">
+        <v>456</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>457</v>
+      </c>
+      <c r="O50" t="s">
+        <v>342</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>458</v>
+      </c>
+      <c r="X50" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>461</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>462</v>
+      </c>
+      <c r="J51" t="s">
+        <v>463</v>
+      </c>
+      <c r="K51" t="s">
+        <v>464</v>
+      </c>
+      <c r="L51" t="s">
+        <v>465</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>466</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>468</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" t="s">
+        <v>470</v>
+      </c>
+      <c r="K52" t="s">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s">
+        <v>472</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>466</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>473</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>474</v>
+      </c>
+      <c r="J53" t="s">
+        <v>475</v>
+      </c>
+      <c r="K53" t="s">
+        <v>476</v>
+      </c>
+      <c r="L53" t="s">
+        <v>477</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>478</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>479</v>
+      </c>
+      <c r="X53" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>482</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>483</v>
+      </c>
+      <c r="J54" t="s">
+        <v>484</v>
+      </c>
+      <c r="K54" t="s">
+        <v>485</v>
+      </c>
+      <c r="L54" t="s">
+        <v>486</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>487</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>488</v>
+      </c>
+      <c r="X54" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>491</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" t="s">
+        <v>493</v>
+      </c>
+      <c r="K55" t="s">
+        <v>494</v>
+      </c>
+      <c r="L55" t="s">
+        <v>495</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>496</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>488</v>
+      </c>
+      <c r="X55" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>498</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>499</v>
+      </c>
+      <c r="J56" t="s">
+        <v>500</v>
+      </c>
+      <c r="K56" t="s">
+        <v>501</v>
+      </c>
+      <c r="L56" t="s">
+        <v>502</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>503</v>
+      </c>
+      <c r="O56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>504</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>505</v>
+      </c>
+      <c r="J57" t="s">
+        <v>506</v>
+      </c>
+      <c r="K57" t="s">
+        <v>507</v>
+      </c>
+      <c r="L57" t="s">
+        <v>508</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>496</v>
+      </c>
+      <c r="O57" t="s">
+        <v>342</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>510</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>511</v>
+      </c>
+      <c r="J58" t="s">
+        <v>512</v>
+      </c>
+      <c r="K58" t="s">
+        <v>513</v>
+      </c>
+      <c r="L58" t="s">
+        <v>514</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>496</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>515</v>
+      </c>
+      <c r="X58" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>518</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>519</v>
+      </c>
+      <c r="J59" t="s">
+        <v>520</v>
+      </c>
+      <c r="K59" t="s">
+        <v>521</v>
+      </c>
+      <c r="L59" t="s">
+        <v>522</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>523</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>524</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>525</v>
+      </c>
+      <c r="J60" t="s">
+        <v>526</v>
+      </c>
+      <c r="K60" t="s">
+        <v>527</v>
+      </c>
+      <c r="L60" t="s">
+        <v>528</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>529</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>531</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>532</v>
+      </c>
+      <c r="J61" t="s">
+        <v>533</v>
+      </c>
+      <c r="K61" t="s">
+        <v>534</v>
+      </c>
+      <c r="L61" t="s">
+        <v>535</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>536</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>538</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>539</v>
+      </c>
+      <c r="J62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" t="s">
+        <v>541</v>
+      </c>
+      <c r="L62" t="s">
+        <v>542</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>543</v>
+      </c>
+      <c r="O62" t="s">
+        <v>170</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>544</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>545</v>
+      </c>
+      <c r="J63" t="s">
+        <v>546</v>
+      </c>
+      <c r="K63" t="s">
+        <v>547</v>
+      </c>
+      <c r="L63" t="s">
+        <v>548</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>549</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>550</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>551</v>
+      </c>
+      <c r="J64" t="s">
+        <v>552</v>
+      </c>
+      <c r="K64" t="s">
+        <v>553</v>
+      </c>
+      <c r="L64" t="s">
+        <v>554</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>555</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>557</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>558</v>
+      </c>
+      <c r="J65" t="s">
+        <v>559</v>
+      </c>
+      <c r="K65" t="s">
+        <v>560</v>
+      </c>
+      <c r="L65" t="s">
+        <v>561</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>562</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>564</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>565</v>
+      </c>
+      <c r="J66" t="s">
+        <v>566</v>
+      </c>
+      <c r="K66" t="s">
+        <v>567</v>
+      </c>
+      <c r="L66" t="s">
+        <v>568</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>569</v>
+      </c>
+      <c r="O66" t="s">
+        <v>170</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>570</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>571</v>
+      </c>
+      <c r="J67" t="s">
+        <v>572</v>
+      </c>
+      <c r="K67" t="s">
+        <v>573</v>
+      </c>
+      <c r="L67" t="s">
+        <v>574</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>575</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>576</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>577</v>
+      </c>
+      <c r="J68" t="s">
+        <v>578</v>
+      </c>
+      <c r="K68" t="s">
+        <v>579</v>
+      </c>
+      <c r="L68" t="s">
+        <v>580</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>581</v>
+      </c>
+      <c r="O68" t="s">
+        <v>170</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>582</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>583</v>
+      </c>
+      <c r="J69" t="s">
+        <v>584</v>
+      </c>
+      <c r="K69" t="s">
+        <v>585</v>
+      </c>
+      <c r="L69" t="s">
+        <v>586</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>587</v>
+      </c>
+      <c r="O69" t="s">
+        <v>170</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>589</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>590</v>
+      </c>
+      <c r="J70" t="s">
+        <v>591</v>
+      </c>
+      <c r="K70" t="s">
+        <v>592</v>
+      </c>
+      <c r="L70" t="s">
+        <v>593</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>594</v>
+      </c>
+      <c r="O70" t="s">
+        <v>342</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>595</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>596</v>
+      </c>
+      <c r="J71" t="s">
+        <v>597</v>
+      </c>
+      <c r="K71" t="s">
+        <v>598</v>
+      </c>
+      <c r="L71" t="s">
+        <v>599</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>601</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>602</v>
+      </c>
+      <c r="J72" t="s">
+        <v>603</v>
+      </c>
+      <c r="K72" t="s">
+        <v>604</v>
+      </c>
+      <c r="L72" t="s">
+        <v>605</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>607</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>608</v>
+      </c>
+      <c r="J73" t="s">
+        <v>609</v>
+      </c>
+      <c r="K73" t="s">
+        <v>610</v>
+      </c>
+      <c r="L73" t="s">
+        <v>611</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>613</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>614</v>
+      </c>
+      <c r="J74" t="s">
+        <v>615</v>
+      </c>
+      <c r="K74" t="s">
+        <v>616</v>
+      </c>
+      <c r="L74" t="s">
+        <v>617</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>618</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>619</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>620</v>
+      </c>
+      <c r="J75" t="s">
+        <v>621</v>
+      </c>
+      <c r="K75" t="s">
+        <v>622</v>
+      </c>
+      <c r="L75" t="s">
+        <v>623</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27389</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>624</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>625</v>
+      </c>
+      <c r="J76" t="s">
+        <v>626</v>
+      </c>
+      <c r="K76" t="s">
+        <v>627</v>
+      </c>
+      <c r="L76" t="s">
+        <v>628</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_361.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_361.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>speedracer211</t>
   </si>
   <si>
     <t>07/04/2018</t>
@@ -195,6 +198,9 @@
 I tried the breakfast buffet my first morning, and for $12.99, I didn't find the value. Perhaps because I came during the last 30 minutes, but the servers were not attentive. I had to wave someone down to be seated,...I have to come to the Diamond Bar area every 4-6 weeks for about a week at a time for work. My first trip here I stayed at the Best Western and it was the WORST. So, this time I stayed at the Holiday Inn in Diamond Bar and I'm so much happier. As many reviewers have pointed out the hotel is still undergoing renovations. They are still renovating the pool area and they might be renovating some floors/rooms but I haven't heard or seen anything during my stay in the hotel, which is great. I had a Junior Suite for my 4 nights and the room was large, comfortable with a balcony and lots of plugs and outlets for a business traveler. The king bed was very comfortable and the linens were quite good, which is a big thing for me since I regularly overspend on fine bedding for my own bed. My room was at the end of the hotel and if you open the door to the patio you can definitely hear the freeway noise but the room is very well soundproofed. It's not 100% quiet and there is some white noise but I found it soothing. I tried the breakfast buffet my first morning, and for $12.99, I didn't find the value. Perhaps because I came during the last 30 minutes, but the servers were not attentive. I had to wave someone down to be seated, to get juice, to get condiments, etc. Everything seemed to have been made fresh, scrambled eggs, crispy bacon, fried potatoes with peppers and onions and pancakes, but everything was barely lukewarm or outright cold. I skipped it the rest of my stay. I did however order some fish &amp; pub chips from room service. It came in 20 minutes, was hot and well made. The fish was well battered and fried and came with great malt vinegar and a dill tartar sauce I really liked. My only issue is that if they say pub chips, I'm expecting like English chips, you know? Like, french fries, but these were just chips. I think they need to clarify that on the menu. I was a bit disappointed but I still ate it and it was fine. I used the fitness center during my stay and the equipment was all fairly new and the A/C worked well. They had towels for you to use there as well but the water dispenser was empty and dirty looking. This will be my go to hotel when I need to come out to Diamond Bar so I hope it continues to meet my expectations.More</t>
   </si>
   <si>
+    <t>newyorker1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r574972983-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>This is my second time staying here. The first time, they were under construction.  This time no excuses. The hallways smelled and the room smelled. Kinda like a sewer. Small desk in the room makes it hard to do any work. Seat with ottoman is hard as a rock. You can open the window, but......there is another window, no screen.  Have to rely on the HVAC for ventilation.  No fresh air. Breakfast buffet was cold and both mornings they were out of coffee and it took another 10 minutes before it was ready. Large parking lot.   If it was not so close to my office I'm not sure I would stay there again. More</t>
   </si>
   <si>
+    <t>vile10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r559913706-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Booked a 2-queen-bed room for an overnight stay for a gathering I was attending nearby with my mom and sis. Got a phone call couple days prior that they didn't have the room for me because my default choice was one-king, they could only upgrade me to a suite with a pull-out, I didn't want to be difficult so I accepted itI could not think of anything good about the hotel - elevators are small and dated and slow, very limited amenities, shower was very awkwardly designed where the control is 5ft away from the showerheadBreakfast was way overpriced and was terrible. I wasn't told that it's not complimentary when my mom already grabbed food into the plate, my bad and I paid for my mistake. They constantly ran out of utensils and coffee cup and food and they ran out of milk at 9:30 in the morning, what?!I rarely came across a chain hotel that I had nothing good to tell and this hotel just managed to make it to the listMore</t>
   </si>
   <si>
+    <t>Aficionado_Me</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r538641485-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>My initial review of the hotel was prior to my visit to the hotel; however, my rating still stands (and wish it could be even less), due to the fact that the actual experience during my stay at the hotel was even worse than my experience before  checking in.  To date, as promised, I have not returned to the hotel, and have found excellent customer service with Holiday Inn's competitors that start with an "S" down the freeway in Pomona.The sad part about my stay, is that it was so horrendous, that I contacted the corporate office of Holiday Inn  to complain, because it involved among other things, the hotel charging a credit card that I never gave them authorization to do so, and then lieing to me, and saying they never did .  The corporate office wrote me 2 emails advising that they would investigate my incident, and in the end, never did, and never followed back up with me, after promising they would. So goes the saying, "Leadership rises and falls from the top".  If the leadership doesn't care, neither will the employees.  So trueMore</t>
   </si>
   <si>
+    <t>Robertb75040</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r533457222-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>I stay here at least 40 nights a year for my regular visits to my home office and the staff is always friendly and helpful.  They renovation is still a few months from being complete but so far upgrades to beds and bathroom have been nice.  Lots of extra USB plugs and power plugs for chargers.  My rate includes the breakfast and the food is always fresh and coffee hot.  It is nice to have a bar where we can drink and not drive and barkeep knows my favorite "poison".  Make sure to ask for a parking lot side room as freeway side can be noisy.More</t>
   </si>
   <si>
+    <t>Darin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r524238243-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -331,6 +349,9 @@
   </si>
   <si>
     <t>If you had been turned off by this hotel's age, good news!  It is undergoing extensive renovations, and the newly renovated rooms are great!  It also has an excellent staff, and, of course, a great location at the juncture of the 57 and 60 freeways that offers quick and easy access to Orange County, the Pomona Valley, and the San Gabriel Valley.  The renovations are presently underway, so expect some disrupted services (hence the only "Average" review at this time).  When the renovations are complete, however, this could be a "Very Good" or "Excellent" hotel.  Some rooms are already done, and they are fresh, comfortable, and modern.  I had a junior suite with a small balcony that overlooked the criss-crossing freeways.  They could have done a better job at soundproofing, as there was some noise from the freeways.  It didn't really bother me, however.  If you are bothered by that sort of thing, request a room on a high floor or facing away from the freeways.  I liked the view from my room, however, with the valley below.  The room was well-appointed with a very, very comfortable bed.  I was not much disturbed or inconvenienced by the renovations, so I wouldn't hesitate to stay now unless you are likely to be disturbed by such things.  I didn't hear hardly any renovation-related noise.  I DID, however, experience noise from the neighboring room, with which my room shared a adjoining door.  The...If you had been turned off by this hotel's age, good news!  It is undergoing extensive renovations, and the newly renovated rooms are great!  It also has an excellent staff, and, of course, a great location at the juncture of the 57 and 60 freeways that offers quick and easy access to Orange County, the Pomona Valley, and the San Gabriel Valley.  The renovations are presently underway, so expect some disrupted services (hence the only "Average" review at this time).  When the renovations are complete, however, this could be a "Very Good" or "Excellent" hotel.  Some rooms are already done, and they are fresh, comfortable, and modern.  I had a junior suite with a small balcony that overlooked the criss-crossing freeways.  They could have done a better job at soundproofing, as there was some noise from the freeways.  It didn't really bother me, however.  If you are bothered by that sort of thing, request a room on a high floor or facing away from the freeways.  I liked the view from my room, however, with the valley below.  The room was well-appointed with a very, very comfortable bed.  I was not much disturbed or inconvenienced by the renovations, so I wouldn't hesitate to stay now unless you are likely to be disturbed by such things.  I didn't hear hardly any renovation-related noise.  I DID, however, experience noise from the neighboring room, with which my room shared a adjoining door.  The new walls are either way too thin, or it was because of the adjoining door.  I don't know which.  It is disappointing that a newly renovated hotel isn't soundproofed better.  Request a room without an adjoining door to be safe. The management should look into better soundproofing.  Otherwise, this is shaping up to be a very good modern HI, and I can't say enough about the excellent staff, housekeeping included.More</t>
+  </si>
+  <si>
+    <t>Sarah H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r494989758-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -361,6 +382,9 @@
 The fridge was large enough to chill all of our gatorade, water and double shot espressos (it was going to be a long, hot weekend)....We came to this hotel because of a softball tournament in Chino HIlls.  I was initially a little bit worried about how it would go because it said on the website that they were undergoing renovations - though only during the week. Still, that can cause some things to function differently than usual, so again - I was just slightly hesitant. SILLY ME!  We had a wonderful time at this hotel, everything was exactly as we'd hope for and the upgrades are worth it!I'm thinking we got one of the newly renovated rooms (seems they're going 1 floor at a time). 1st of all - they've done a great job keeping the renovations away from your hotel stay. The elevators say "Don't get off on X floor" there is a guard posted at that floor should the button get pushed by accident. There is no way you'll accidentally wander somewhere you shouldn't.   So back to our room! We had 2 double beds with BRAND NEW mattresses!  (only thing is, they need to tack it to the bed frame as mine slid when I'd try to get in or out of bed - yeah, I'm short!).  They are SO comfortable!  The pillow cases are embroidered "Soft" or "Hard" so it's easy to find your preference. The fridge was large enough to chill all of our gatorade, water and double shot espressos (it was going to be a long, hot weekend). The shower was really nice and large with shelves to hold all your toiletries but that don't get in the way. Water pressure and temperature was good, and the drain was cool. The carpets and linens (and room as a whole) all felt clean!We had breakfast and a night cap in the hotel. We had a complimentary (due to the inconvenience of the construction) brownie with a glass of milk (for the softball player) and a glass of wine (for me) and took it back to our room to binge-watch cable tv.  Breakfast was a buffet with a lot of selections!  We got there first thing and everything was hot, fresh, and delicious!  All of the staff we encountered were super friendly. ESPECIALLY the ones who I talked to twice in one night before we arrived when I cancelled the 1st night of our stay, then immediately added it back on!  Patient and smiling!  I'd return to this location and truly, it raised the bar as far as my overall expectations for the brand!  We're staying in another in a few weeks - looking forward to it!  Of course, I became an IHG Rewards member.#HolidayInn #Hotel #MakesMeWanderMore</t>
   </si>
   <si>
+    <t>NicknAZ49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r490009184-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -388,6 +412,9 @@
     <t>I had a recent visit to the area for personal matter and stayed at the Holiday Inn Select in Diamond Bar.  This hotel was booked online but did not offer some important information online.  Fortunately, the hotel called me to verify my requirements and explained the hotel was undergoing renovation during my stay.    She explained the three upper floors were complete but the construction was ongoing.  The rooms were completely gutted and updated.  I asked for the sixth floor and was able to have my desire granted.  As I said, the rooms have been tastefully upgraded with a brand new mattress.   The only drawback was the noise of the freeway below.Try to get a room away from roadway side because the freeway is also under construction and the truck downshifting made a ton of noise.  The restaurant on premises was fair but the cocktails were generous and well made.  Breakfast is not included and very pricey.  The hotel staff was very friendly, courteous and helpful.  They  recommended some good local eateries and went the extra mile to make one very welcome.More</t>
   </si>
   <si>
+    <t>Timothy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r488571759-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -412,6 +439,9 @@
     <t>This room was great in so many ways. First, the beds were on the firm side which I love. It had a fridge which should be standard in every hotel room in America. And the shower was beautiful, but wish it had better water pressure. Actually the water pressure is the only thing I can think of that I can ding this room for. Even then it was definitely bearable.More</t>
   </si>
   <si>
+    <t>bzydad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r470605579-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -439,6 +469,9 @@
     <t>Stayed at the hotel from March 23rd to the 26th as a chaperone for a high school band trip. Arrived late on the 23rd close to midnight and was promptly checked in which was great for having 58 kids and 9 chaperones. Was told breakfast started at 6 and it was ready with scrambled eggs, home fries with peppers and onions, bacon and sausage. There was a waffle maker and hot oatmeal, melon cubes and bananas, milk and juice and coffee or hot water for tea. Every was great and the gentleman that was in charge was going out of his way to make thing pleasant which is a task with 58 kids wandering in plus the other guests. With 58 kids and 2 somewhat working elevators was a challenge and with the stairwell flooded added to the challenge we managed to keep with our schedule. The rooms were nice, I was on the 2nd floor which has not been renovated yet but the rooms that were are very nice and modern looking with double pain windows to muffle the road noise if you are staying on the freeway side. My room was on the freeway side with single pain windows and there was a difference in sound, they supply ear plugs found in the closet to use which helped. The beds were comfortable with 4 soft pillows and soft sheets. The bathroom has a tub/shower combo but the new...Stayed at the hotel from March 23rd to the 26th as a chaperone for a high school band trip. Arrived late on the 23rd close to midnight and was promptly checked in which was great for having 58 kids and 9 chaperones. Was told breakfast started at 6 and it was ready with scrambled eggs, home fries with peppers and onions, bacon and sausage. There was a waffle maker and hot oatmeal, melon cubes and bananas, milk and juice and coffee or hot water for tea. Every was great and the gentleman that was in charge was going out of his way to make thing pleasant which is a task with 58 kids wandering in plus the other guests. With 58 kids and 2 somewhat working elevators was a challenge and with the stairwell flooded added to the challenge we managed to keep with our schedule. The rooms were nice, I was on the 2nd floor which has not been renovated yet but the rooms that were are very nice and modern looking with double pain windows to muffle the road noise if you are staying on the freeway side. My room was on the freeway side with single pain windows and there was a difference in sound, they supply ear plugs found in the closet to use which helped. The beds were comfortable with 4 soft pillows and soft sheets. The bathroom has a tub/shower combo but the new rooms have just a shower, the vanity is outside the bathroom and the amenities were nice. The location is ideal for getting around Los Angeles and is near shopping centers and restaurants. I gave it a 3 rating mainly because of the construction issues but will be better when done. Thank you for the great stay thanks in part to the staff for their above and beyond help. More</t>
   </si>
   <si>
+    <t>JimmyChuck1948</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r462587950-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -466,6 +499,9 @@
     <t>This is now a Holiday Inn Select? Maybe you should select a different Hotel. I had reservations for a king room in a non-smoking Hotel. When I got to my room I was in a double that reek of cigarette smoke. The website warned of possible construction noise but said nothing about having to sleep on smoking floors. There was even a sign just outside the elevator on our floor that said the state of California considered the floor possibly dangerous to one's health. The top two floors were closed for construction. I went down to the front desk asking for a non-smoking room and was told she was sorry all she had were smoking floors. She moved me to a King room next door but it was only slightly better. I don't blame her for not calling to see if my second room was any better. I'm sure she knew it wasn't. Besides the cigarette smell, the desk chair dropped to the floor when you sat on it. The comfy chair was anything but. I found it interesting that one might need the eye mask and earplugs provided in the room . It was a miserable night on a very noisy Highway. The breakfast buffet was totally lacking and I really can't think of anything good to say about my visit. If you know me by my reviews you know it is very rare that I say things negative...This is now a Holiday Inn Select? Maybe you should select a different Hotel. I had reservations for a king room in a non-smoking Hotel. When I got to my room I was in a double that reek of cigarette smoke. The website warned of possible construction noise but said nothing about having to sleep on smoking floors. There was even a sign just outside the elevator on our floor that said the state of California considered the floor possibly dangerous to one's health. The top two floors were closed for construction. I went down to the front desk asking for a non-smoking room and was told she was sorry all she had were smoking floors. She moved me to a King room next door but it was only slightly better. I don't blame her for not calling to see if my second room was any better. I'm sure she knew it wasn't. Besides the cigarette smell, the desk chair dropped to the floor when you sat on it. The comfy chair was anything but. I found it interesting that one might need the eye mask and earplugs provided in the room . It was a miserable night on a very noisy Highway. The breakfast buffet was totally lacking and I really can't think of anything good to say about my visit. If you know me by my reviews you know it is very rare that I say things negative but this property deserves it. Keep away until the property deserves the Holiday Inn Select status.More</t>
   </si>
   <si>
+    <t>Zenaida L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r457489998-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -493,6 +529,9 @@
     <t>The hotel is on top of the hill overlooking the freeway. It was undergoing some kind of renovation and some floors are closed. The front desk clerk was cheerful and efficient. The place was clean and quiet and you wouldn't know that there's some work going on. The room was clean and spacious but I think it could use some modernization. There was the usual coffeemaker and a small refrigerator. The hotel also provided free Wi-Fi and also an in-house diner/grill There's several restaurants very near the hotel. I wouldn't mind going back once the work is done. I'm sure that the hotel will be one of the best in Diamond BarMore</t>
   </si>
   <si>
+    <t>doctall41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r431649598-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -518,6 +557,9 @@
   </si>
   <si>
     <t>The property looks newer on the outside than it does on the inside. Check in was fast and very pleasant, except for being given a room that was not cleaned. But they got me a new room real quick.  Room service meal was ok. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>Jessica S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r414271981-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -554,6 +596,9 @@
 The room itself was fine - clean-ish and large. It had an arm chair and a desk, along with a fridge (which we used while we were there - it was hot as balls!) The WiFi was free, but it was also very slow, and we often got dropped. Even the cable suffered from interruptions. I was trying to watch a bit of the Olympics while we were relaxing at the hotel, and the TV reception froze and jumped so often that in a 3 minute boxing round, I saw maybe 10 seconds of the action. Every channel suffered the same fate - from their regular channels to the three HBO channels. It was infuriating, trying to watch the news, only to miss most of what was being said because...We were only here for a night, and it was a budget hotel, so we got what we expected, as far as comfort and cleanliness went. The location was fine - it was close to the venue we were visiting, and within easy driving distance of restaurants and things like Target and Starbucks. Our check-in experience left a lot to be desired. I don't need overly bubbly, fake-friendly staff, but would it kill you to crack a smile, or at least pretend to be interested in the people checking in? Or, you know, stop your non-work-related conversation with the maintenance guy long enough to even acknowledge that we're standing there?The room itself was fine - clean-ish and large. It had an arm chair and a desk, along with a fridge (which we used while we were there - it was hot as balls!) The WiFi was free, but it was also very slow, and we often got dropped. Even the cable suffered from interruptions. I was trying to watch a bit of the Olympics while we were relaxing at the hotel, and the TV reception froze and jumped so often that in a 3 minute boxing round, I saw maybe 10 seconds of the action. Every channel suffered the same fate - from their regular channels to the three HBO channels. It was infuriating, trying to watch the news, only to miss most of what was being said because of the crappy reception.The toilet and shower were separate from the sink (toilet and shower behind the door, sink in the sleeping area), and the bathroom door wouldn't stay open without propping something up next to it (I got creative and used the luggage rack to keep it open).The bed was decent for one night, but I don't think I'd get many restful nights there, if we had stayed longer.Parking was free, and the lot was large. The elevator was almost comically slow, so I recommend taking the stairs, if you're able.More</t>
   </si>
   <si>
+    <t>n w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r401949967-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -578,6 +623,9 @@
     <t>This establishment is close to the 60 freeway. I had the chance to stay overnight at this particular Holiday Inn. The room had a comfortable king size bed with a desk to use, a 32 inch LG flat screen TV, a refrigerator, a nice dresser for travelers to place their personal belongings in, a mini bathroom sink with a toilet inside the room. The shower was not as pleasant as I had hoped it would be. The shower head is removable from the bracket. There are many hand bars for those who may need something to hold onto in the bathroom. The room could use more electrical outlets especially with travelers bringing along many of their personal devices. I found two in the room and two in the bathroom, which is nice, but not advisable as it could short out due to the closeness of the outlet to the sink.My one negative comment would be that I had contacted the hotel earlier in the day requesting two double beds? The hostess mentioned they would hold the beds for me. When I checked in - I found out I was placed in a king size bed. It would have been nice if the front desk would have honored my request as I had called in earlier.More</t>
   </si>
   <si>
+    <t>dhecker2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r385070116-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -605,6 +653,9 @@
     <t>Turns out there was a birthday party at the hotel. The music rattled the whole building.I was on the 5th floor. It ran late into the night. Complained to front desk around 9:30 and all they said was sorry. Then at check out I also complained and again all I got was an apology. I heard from other guess that they were also bothered and complained.More</t>
   </si>
   <si>
+    <t>Catherine E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r382043447-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -629,6 +680,9 @@
     <t>Stayed twice; week apart.  bartender Juan is very nice lad.   bar and grill area out of date.  parking great.  attracts tour buses .... lots of chinese.  elevator out at second visit so tried to use stairs but they are emergency exit only.  no recycling in room.  staff gracious, which is always a plus. Starbucks is close.More</t>
   </si>
   <si>
+    <t>samrater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r381768519-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -653,6 +707,9 @@
     <t>When staying at a hotel my major criteria is convenience. However an unwritten rule is the expectation that you will sleep well. I'm typing this review from a room on the 6th floor at 10:50pm because my family and I cannot sleep. Apparently there is an event on the first floor that is so loud it has keep us awake. Normally I wouldn't mind so much but when traveling with an infant this tends to be a bit more irritating. We called the front desk to complain and were told they can't do anything because of a contract. So we suffer but the delirium has made me wiser.. Ask about hotel events before staying and NEVER stay here againMore</t>
   </si>
   <si>
+    <t>stevecheryl40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r368289654-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -680,6 +737,9 @@
     <t>We were very impressed!!  We had a room by the elevator and didn't hear it any time. We also had rooms on the Highway side of the Hotel and weren't bothered by the noise at all.   We were there for the Drag races and had an awesome experience.More</t>
   </si>
   <si>
+    <t>culbers2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r355923146-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -707,6 +767,9 @@
     <t>We got a good rate here for our trip to Disneyland.  The staff was friendly and efficient, the room was clean and I couldn't hear any noise from the freeway.  The checkout was done without leaving the room.  I would stay here again, the only negative is that the bathroom doesn't have a fan, so you have to run the shower to get some background noise which wastes water.More</t>
   </si>
   <si>
+    <t>Wendy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r352637575-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -731,6 +794,9 @@
     <t>Bring your earplugs. This place is right on the freeway. Across the freeway is an ugly view of mining or digging of some sort. Ask for a room on the opposite side. Otherwise as good as expected for a Holiday Inn. Though I should have read the fine print as they do not provide a free breakfast, it costs $10.95.More</t>
   </si>
   <si>
+    <t>Brian R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r332965746-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -758,6 +824,9 @@
     <t>This hotel did not reach the standard I have come to expect.  Checked in to stay three nights left after one.  Hotel is showing it's age.  Room was very small and bathroom was very dated and dirty.  Elevators were very slow.  Breakfast staff was indifferent at best.  This is a skip it.More</t>
   </si>
   <si>
+    <t>StephanieGContreras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r327393687-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -785,6 +854,9 @@
     <t>ANTS, HORRIBLE CUSTOMER SERVICE, RUDE WAIT STAFF, TERRIBLE MANAGEMENT!!!!!! Do NOT stay here! I drove 6 hours from Arizona arrived at the hotel around midnight with my family of 4 checked into room 515, walk in find ANTS everywhere and not just a couple we tried to brush them off and as we keep looking we find them everywhere. I called downstairs to get a different room and all them offered is for the security guard to come change the sheets I then go downstairs and demand my money back so we could leave and they tell me they do not have authority to return my money and after about 30 minutes of going back and forth they tell me they can "upgrade" me to a jr suite with ONE bed.. Remember there is 4 of us!! After being told that there is no other room and that I cannot get my money back we go upstairs and check out room 202 and decide that it's already two in the morning and will stay in that room. Now my children will have to sleep on the floor- so you tell me how is that an upgrade?!?   To top it off I wake up about for work four hours later and get to go in the shower and find ANTS in the  shower. Again I go downstairs and I complain tell him I have a legitimate claim and that I want...ANTS, HORRIBLE CUSTOMER SERVICE, RUDE WAIT STAFF, TERRIBLE MANAGEMENT!!!!!! Do NOT stay here! I drove 6 hours from Arizona arrived at the hotel around midnight with my family of 4 checked into room 515, walk in find ANTS everywhere and not just a couple we tried to brush them off and as we keep looking we find them everywhere. I called downstairs to get a different room and all them offered is for the security guard to come change the sheets I then go downstairs and demand my money back so we could leave and they tell me they do not have authority to return my money and after about 30 minutes of going back and forth they tell me they can "upgrade" me to a jr suite with ONE bed.. Remember there is 4 of us!! After being told that there is no other room and that I cannot get my money back we go upstairs and check out room 202 and decide that it's already two in the morning and will stay in that room. Now my children will have to sleep on the floor- so you tell me how is that an upgrade?!?   To top it off I wake up about for work four hours later and get to go in the shower and find ANTS in the  shower. Again I go downstairs and I complain tell him I have a legitimate claim and that I want to get a full refund for their horrible customer service waitstaff only to be told that they could not refund me my money..  I have been fighting with them ever since. They told me they did find ants in 515 BUT didn't find ants in 202 lol this is their was of keeping my money for their TERRIBLE ACCOMMODATIONS!!! They REFUSED TO ACCEPT RESPONSIBILITY THEY REFUSE TO GIVE ME A REFUND! THIS PLACE IS A DUMP AND A RIPOFF!!! No stars!! Had to click 1 star in order to post.. Oh and I did not even mention the waitress in the Buffett that was talking crap in Spanish...More</t>
   </si>
   <si>
+    <t>jesse c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r324763353-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -812,6 +884,9 @@
     <t>This hotel is just simply the worst hotel I have ever stayed at. The staff is very rude and make you feel uncomfortable the moment you walk in. I stayed there with some family this past weekend and the staff made us feel unwelcome the moment we walked in the door . the told us no noise or party but we were not there for that type of visit . I felt offended and disrespected because I was judge with my company and felt embarrassed. I even called the front office and asked if there would be a problem and they said no. But the whole weekend we kept on getting bad looks from both the staff and the managers . I'm a spire elite member with IHG and never have I been so uncomfortable and embarrassed to be at a holiday inn  Establishment. Do not stay at this location ever. More</t>
   </si>
   <si>
+    <t>seal5kla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r295006098-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -837,6 +912,9 @@
   </si>
   <si>
     <t>This is a very good property and has a lot of amenities like an outside terrace with table umbrellas for shade and heat lamps for chilly nights, onsite restaurant with in room service, and convenience shop for emergency and forgotten items.This is a converted property, it looks like a former Clarion or Comfort asset, and because if that some things are not what one would expect from Holiday Inn. The room layouts are small, awkward, and cluttered with too much furniture. For example, the sink vanity is outside the bathroom in the living space. The business center is just a couple of PC's in a hallway without any privacy, facsimile machines or copiers.There is an onsite restaurant called DB's where the food is above average but service is decidedly different between breakfast and dinner, skip breakfast. Also, the layout is awkward with buffet at one end and cold cereal, yogurt, and drinks at the other. In the end the price point is great and it all looks like it's there, but in the end it's a little askew.More</t>
+  </si>
+  <si>
+    <t>Jenny M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r288263139-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -870,6 +948,9 @@
 After two night sleep on the sofa, my back was hurt, I went downstairs to talk to someone in charge. He told me : there are travel group in Wednesday , so they can not give me 'two beds' room.  Yes, I noticed, there are travel groups from China, Taiwan  stay in the hotel,  I noticed Monday, Wednesday and Friday ( quite often) groups were in the hotel. You get punished, you stay long, if i only stay one day,...We had a reservation for 6 nights with a simple  request : two beds. We arrived earlier on Sunday 5:00PM  and got a room with one bed. I showed them the hotel confirmation  letter and it has 'two beds' request on the top of the letter. All he said was 'sorry' and told me he can add a rolling bed for me. I went to the room and found if a rolling bed added to the room , then whole week we can not move, so I decided 'Not' add the rolling bed and sleep on the sofa chair. To my surprise, after we got in the room I received my credit card notice:  $1229.84 charged on my credit card. I looked at the confirmation letter and it was $1078.62 for six nights . Why there are extra charge??  Finally , the company manager stopped by the hotel and got the charge correct. But we still have one bed only. After two night sleep on the sofa, my back was hurt, I went downstairs to talk to someone in charge. He told me : there are travel group in Wednesday , so they can not give me 'two beds' room.  Yes, I noticed, there are travel groups from China, Taiwan  stay in the hotel,  I noticed Monday, Wednesday and Friday ( quite often) groups were in the hotel. You get punished, you stay long, if i only stay one day, I may get two beds for us.The hotel charges  $9.95 for the morning breakfast buffet, during the day, group are in,  i can not get 'hot water' for my tea, most time , food are gone quick, so you must be quick... quick..The hotel is in a nice location, nice environment.  I went couple places around diamond bar area and I enjoyed.  Another nice thing about the hotel is the swimming pool, big and clean.As long as you have a strong muscle and you don't mind sleep on the rolling bed or like me 'petite', squeeze in the sofa chair...  But after one week, long long six nightsmy back is really hurt !!!! What a unforgettable experience.More</t>
   </si>
   <si>
+    <t>Leilani F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r280197190-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -897,6 +978,9 @@
     <t>We had a really difficult time finding a wheel in shower handicapped room in this area that we needed to be in for a son's wedding.  Although this hotel is in a predominantly Chinese area, we were treated very well.  Our bed was very comfortable andd though the room was a little tight fit for my wheelchair, the bathroom was one of the best I have been in.  We had plenty of hot water too! Everyone was very friendly and accomadating.  I would definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>pompui</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r274962752-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -924,6 +1008,9 @@
     <t>The hotel is pretty much what you'd expect from a typical Holiday Inn in terms of room and ammenities. You won't be sharing pitchers of your room around the water cooler when you get back home. The front desk staff is very helpful with great service. So much for what they can control...what the CAN'T control is the nonstop traffic that seems to drive THRU the hallways. We were on the 6th floor facing the multiple highways and the windows couldn't hold back the nonstop rush of traffic going by day and night. My wife tried earplugs to little avail. I don't mind the noise (unless you include the griping coming from my wife about the traffic) so I slept well. She uses a fit bit that tracks her sleep patterns and the graph looked like the Rocky Mountains with peaks and valleys throughout the night. If you are a heavy sleeper sans an unhappy spouse, then you'll probably be fine. If 'things that go whoosh in the night' bother you then you better look elsewhere.More</t>
   </si>
   <si>
+    <t>ColoradoRat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r273656572-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -948,6 +1035,9 @@
     <t>Parking lot is spacious, well lit, and mostly out in front of the hotel.  Better than others whose parking lots wrap around the side and are dim / hidden from view.  The lobby is open and clean.  The first floor has a restaurant which is the breakfast bar in the AM, and a nice bar / restaurant at night.  The food is very good in the restaurant, and reasonably priced.  The rooms were clean and comfortable.  My room had no issues, and I didn't interact with the front desk for anything.  I will be staying here when I visit my customer in the future.Also, I saw where one of the other reviewers indicated the highway noise was bad.  Maybe it was an old review, because I had a highway side room, and it did not bother me at all.More</t>
   </si>
   <si>
+    <t>jjrides</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r272328064-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -964,6 +1054,9 @@
   </si>
   <si>
     <t>This hotel is up to Holiday Inn Express standards in every way but the noise.  We had a freeway side room that was so loud we thought the windows had been left open.  The staff was young and inexperienced and had trouble finding a suitable room after a long drive.More</t>
+  </si>
+  <si>
+    <t>reztrop</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r248921488-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -997,6 +1090,9 @@
 The reason why I am giving this hotel 3 stars and not 2 is the service shown by the front desk. I was greeted with a hello and a smile by the one friendly lady behind the front desk everytime I entered or left the hotel. Everyone else was just polite (not necessarily friendly). I never encountered a...Stayed here for six nights from January 6 to January 12, and I had an average experience. I was placed in a room on the side of the hotel that faces the 57/60 freeway interchange. You can hear the sound of the cars whizzing by continuously like a non-stop waterfall. If you are a light sleeper like me, it may take some time to adjust to the freeway noise before you can finally fall asleep. Coming from New York on leisure travel, I must say the windows are poorly insulated from this noise. I've stayed in hotels on the 5th floor in NYC facing a busy street and can hardly hear a noise due to good insulation windows, which this hotel lacked.I work in the hotel industry in NYC and front desk clerks assign the least desirable rooms to people who get bargains online. The reason why I was assigned a room facing the freeway is most likely  because I found a cheap rate through Hotels.com. If you pay a cheap rate, you may be assigned a room facing the freeway.The reason why I am giving this hotel 3 stars and not 2 is the service shown by the front desk. I was greeted with a hello and a smile by the one friendly lady behind the front desk everytime I entered or left the hotel. Everyone else was just polite (not necessarily friendly). I never encountered a rude staff member here.If you just need a roof over your head and don't mind the noise from the freeway, should they put you on that side of the hotel, then this place might work for you. But personally I will choose another hotel the next time I visit the area.More</t>
   </si>
   <si>
+    <t>StuwArt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r241927512-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1048,6 +1144,9 @@
     <t>While this hotel is starting to look a bit dated, the service is good and the location is very strategic for convenient access to Orange County and the San Gabriel and Pomona Valleys.  Choose this one for the location.More</t>
   </si>
   <si>
+    <t>palaciosliz19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r235468357-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1078,6 +1177,9 @@
     <t>I was overwhelmed planning my stay here for a funeral when it hit me that I would need an earlier check-in than 4pm. I contacted the hotel explaining my situation and if anything would be possible. The young lady I spoke too was very understanding and comforting, while making me feel relieved telling me she would be there when i checked in and would have something ready for me. She sure helped. When I arrived she still wasn't there but I later asked if she was (silvia) the young lady I spoke too and it was! During my stay every time I came across her I'd stop by and speak to her about situations I was going through and she listened every time, which helped make my stay more relieving. When I asked for dirrections she immediately got those ready for me. On behalf of my family and I, I would like to thank the staff for making my stay a memorable one.More</t>
   </si>
   <si>
+    <t>Stevvhaw92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r235456613-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1093,6 +1195,9 @@
     <t>By far the best service. I have stayed at many holiday inn's however this one will leave a memory. Everyone who works here is alway smiling , the front desk staff is great!! I will come here more often. Check in was fast however they still asked if I needed anything to give them a call. A young lady at the front was very helpful in calling a taxi for me. I felt like I was showered with their sincere kindness. I am a traveler and I will most likely stay at this location. Good job diamond bar staff you all went out of your way to make my stay a remberable one.More</t>
   </si>
   <si>
+    <t>blackjack2223</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r233543558-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1111,6 +1216,9 @@
     <t>Wow!! This place made me feel like we had met before I travel all the time and lots of hotels just give you that great Customer service when you check in and as soon as they see you again it's always that awkward " how can we help you?" With a forceful smile.. But not here!!!  After checking into my room a few minutes later my room phone rings... It was the front desk (Loveleen) asking how was everything with my room?? I told her so far so good! I had googled a chilies restaurant close by so I decided to dine their for the night but as I was on my way out the front desk gave me great smile and said enjoying your stay? I said yup on my way to have dinner... Any recommendations ? She said we sure do DB's  grill!!! She started telling me all about the menu and how great it was... Sold I said... And it's was worth it!! I ordered a steak with a potato... Now that was a good steak!!! The service was amazing their too!!  My server  "Juan" was quick and my food delicious.. Once I came out thier was that warm welcoming again.. Asking me if I enjoyed my dinner. I thanked her for her recommendation and told  that everyone here is soon nice... Not only was I impressed with the way everyone here collaborated to work together as...Wow!! This place made me feel like we had met before I travel all the time and lots of hotels just give you that great Customer service when you check in and as soon as they see you again it's always that awkward " how can we help you?" With a forceful smile.. But not here!!!  After checking into my room a few minutes later my room phone rings... It was the front desk (Loveleen) asking how was everything with my room?? I told her so far so good! I had googled a chilies restaurant close by so I decided to dine their for the night but as I was on my way out the front desk gave me great smile and said enjoying your stay? I said yup on my way to have dinner... Any recommendations ? She said we sure do DB's  grill!!! She started telling me all about the menu and how great it was... Sold I said... And it's was worth it!! I ordered a steak with a potato... Now that was a good steak!!! The service was amazing their too!!  My server  "Juan" was quick and my food delicious.. Once I came out thier was that warm welcoming again.. Asking me if I enjoyed my dinner. I thanked her for her recommendation and told  that everyone here is soon nice... Not only was I impressed with the way everyone here collaborated to work together as one team but  also just the way the all the staff careered each of thier positions with such professionalism and knowledge .... My hat goes off to this team... More</t>
   </si>
   <si>
+    <t>Squidhead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r231357356-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1138,6 +1246,9 @@
     <t>I stayed here for one night for business. I got an upgrade to a nice suite facing the parking lot. The bed was very comfortable, the room had a fridge, a HUGE dresser, nice adjustable TV, the bathroom &amp; shower were wonderful &amp; I have no real complaints. The AC unit was noisy but that's not uncommon in hotel rooms, I believe. I'd definitely stay here again.More</t>
   </si>
   <si>
+    <t>flora z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r230110263-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1162,6 +1273,9 @@
     <t>The staff here are extremely friendly.  All of them have great smiles, making you feel you are a valued guest.  Though everything inside the hotel is pretty basic, the hospitality makes the experience more dynamic.   Try to maintain a healthy lifestyle on the road?  There is a Farm Market within walking distance, with a lot of fresh fruits.  Mansun, a Japanese restaurant, is next to the Farmer Market.  But the wait time is long.More</t>
   </si>
   <si>
+    <t>Claire F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r226324416-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1189,6 +1303,9 @@
     <t>This hotel was just perfect for our one-night stay.  The bed was comfortable, room was clean, and the hotel was pretty quiet.  It sits on a hill away from immediate traffic.  The room was a bit small.  Not much space between the bed and dresser, and sink counter could use more space.   Would highly recommend for cleanliness and comfort!More</t>
   </si>
   <si>
+    <t xml:space="preserve">Swaymyway </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r219307285-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1216,6 +1333,9 @@
     <t>While vacationing in California, we had a horrendous experience at one of the hotels but that night while searching online, we were able to book a room at this Holiday Inn for the remainder of our stay and were quite pleased. Since my sister is an IHG member, she received a free upgrade to our room; it included a king sized bed and fridge which we put to good use. The cleaning staff was friendly and prompt, the pool area was quite relaxing and room service food was tasty (only negative is 18% gratuity is already included). There is plenty of parking and the location is only about 30 minutes from LA and other Cali attractions. Thanks to this hotel we were able to enjoy the rest of our stay and were sad to leave.More</t>
   </si>
   <si>
+    <t>Angelo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r218943986-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1231,6 +1351,9 @@
     <t>We stayed at this hotel July 25 to July 27, 2014 and I find it delightful. No complimentary breakfast served in the morning but that is fine with us so we were forced to go out and find out what Southern California cuisine has to offer. Rooms were clean, a little outdated but provides for everything we needed. It even has a small refrigerator in the room. The hotel is tucked on an incline in a hill and there are ample parking space. Coffee in room was a little bit bland but at least, guests have that option. Overall, not bad.</t>
   </si>
   <si>
+    <t>Elaine K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r217498280-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1255,6 +1378,9 @@
     <t>We stayed at this location during the July 4th weekend. The room they gave me was clean but very old/dated (definitely needs to be remodeled) and is facing the freeway so it gets lots of freeway noise. My 18 months old is a light sleeper, so I requested to be switched to a quieter room. However, the front desk told me to leave them my phone number so they can call me back if there is another room available,,, of course they never did.. When we checked out the next morning, the front desk take the room key without any smile on the face and didn't even asked how was our experience. I will not recommend this location to anyone.More</t>
   </si>
   <si>
+    <t>935teresa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r206552460-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1273,6 +1399,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>nrstycz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r201316707-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1300,6 +1429,9 @@
     <t>This hotel gives an excellent first impression. The exterior looks like the newly reinvented Holiday Inn hotels and the lobby would also lead one to believe that you are going to experience the new Holiday Inn. But once you get into the rooms, it feels like Holiday Inn circa 1995. The furniture is scratched, bumped and tired. The bathroom is in the old style. If there was a Holiday Inn Express nearby, this hotel would not be able to compete. The hotel is not only in plain view of a couple LA Freeways, you can hear the symphony of the semis all night long. On the plus side, I thought that the staff were very friendly and worked hard to help our guest experience. The beds were reasonably comfortable and the price was reasonable for the eastern I-10 corridor.More</t>
   </si>
   <si>
+    <t>Amy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r200143676-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1327,6 +1459,9 @@
     <t>Every single employee I came in contact with from front desk to housekeeping to the restaurant was courteous and professional.  Smiles abounded and I was routinely asked if I was happy with everything.The building is old and needs updating - especially the bathrooms.  My tub apparently had a leak around the drain that was only apparent after taking a long bath and draining the tub.  Rather than fix it and/or move me, the response was to unscrew the plug to keep me from taking another bath.  There is also obvious staining from previous water stains.The employees are great.  I would prefer to have a bathroom in which I can enjoy a bath without having the staff knock on my door and inform me that my tub leaked into the hallway.More</t>
   </si>
   <si>
+    <t>Ruth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r198458351-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1345,6 +1480,9 @@
     <t>The good news and the bad news is it is freeway-close. If you think the noise will bother you, ask for a room on the parking lot side vs the freeway side. The rooms were kept reasonably clean and there was always a new bottle of water on top of the fridge. The beds are very firm so if you have problems with firm mattresses, an egg crate can help. This is one of the very few hotels that have smoking rooms so if that bothers you, ask for any floor other than the 3rd floor. One minor issue we had was the noisy A/C unit. But it worked very well. After the first night, I was able to get used to it's noisy cycles. Tip: If you want breakfast, you can skip the restaurant in the lobby and go west on Golden Springs a few short blocks to the Coco's Restaurant &amp; Bakery on your right. They have a nice breakfast menu including gluten-free pancakes if you must avoid gluten but envy what everyone else is having. They aren't the greatest GF pancakes I've had but with some added sweetness (powdered sugar or syrup), they'll do.More</t>
   </si>
   <si>
+    <t>traveln4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r196808242-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1369,6 +1507,9 @@
     <t>When we arrived, the overall atmosphere of the entire hotel was very un-hospitable.  The front desk personnel were acting as if they were doing us a favor and were very lukewarm in attitude.  The smell in the lobby was so strong of air freshener that it made me sick due to allergies to specific scents.  The rooms are extremely small, the beds are not much wider than a twin.  The room appeared clean until we pulled back the covers and noticed dried blood on the edge of the down comforter.  I called the front desk immediately and again, they were non-apologetic sounding as if I was making a mountain out of mole hill.  I didn't ask to be moved, just asked for clean linens.  The housekeeper that arrived was extremely apologetic and very quickly removed the soiled linen and brought us new, clean ones.  Her name was Florabel and she is the reason for the 3 stars instead of 1.  Check-out was quick and easy and the beds were comfortable.  I would not stay here again.More</t>
   </si>
   <si>
+    <t>bills47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r195139807-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1396,6 +1537,9 @@
     <t>We stayed at this hotel for two nights while on a tour to attend the Rose Parade in Pasadena on New Year's Day, 2014.  Our stay was decent except for the loud, unrelenting traffic noise outside.  Our room was next to a very busy freeway and because the hotel was sold out, we were unable to change rooms.  We got a terrible nights sleep the first night and it was only slightly better the following night.  I would guess that the noise was more tolerable in the rooms on the other side of the hotel.Besides that, the hotel was pretty decent.  The room was neat and clean, but could have used an updating.  Also, the patio door did not lock properly, but since we were not on the ground floor, we were not too worried.  One thing we didn't like (but is common in some hotel rooms) was that the sink was right inside the bedroom.  Thus, the early-riser cannot help disturbing the late-sleeper.  Only the shower and toilet could be closed off behind a door.However, the breakfast was wonderful.  It featured several hot items, which were very tasty, cold cereal, etc.More</t>
   </si>
   <si>
+    <t>MelanieandDarrell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r178722899-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1423,6 +1567,9 @@
     <t>Great location for what we needed-wedding and visiting friends and family in the area. Clean, great rate and smiling staff. We didn't have a breakfast package but did pay for the buffet one day. Fresh food and they were very kind to bring me something from the kitchen that wasn't out. Awesome water pressure in the shower and lots of toilettres. The room seemed small but I think it is because the ceiling is a little lower than other hotels. We will definitely return. More</t>
   </si>
   <si>
+    <t>Eric W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r172222180-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1444,6 +1591,9 @@
     <t>I was here for a week on business and have almost zero complaints.  The room was clean and the pillow top mattress was oh so comfy.  Front desk service was good (I was recognized as a Priority Club member and got a room upgrade).  I had a room on the freeway side but barely ever noticed the noise others mention.  There is a restaurant/bar on site with an outdoor patio.  The food is just average, not bad but not spectacular.  A good substitute though if you don't feel like going out.  Just down the road in Rowland Heights there are a LOT of good Asian places to eat, and you've got an In N Out burger about a mile away (a must try if you've never had them).  The only complaint about the room is that the bathroom light took about 5-10 minutes to get to full brightness (so I just left it on most of the time) and the bathroom door would not stay open (it always wanted to close on its own).  Other than that, great stay and would definitely stay here again if in the area.  Didn't try the breakfast but it was always crowded when I was leaving for work so I'm guessing it's ok.More</t>
   </si>
   <si>
+    <t>Todd J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r168301312-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1459,6 +1609,9 @@
     <t>All in all a pretty good hotel.  Staff all very friendly, decent restaurant on site for breakfast, lunch or dinner.  There is a decent sized outdoor pool and a small fitness center with universal set and a few cardio machines.My group will stay there again.</t>
   </si>
   <si>
+    <t>Niermom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r155198316-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1486,6 +1639,9 @@
     <t>The staff here is very helpful and courteous. Good breakfast buffet. The rooms are comfortable. If you have a room on the freeway side, just turn on the fan onthe heater/air conditioner to provide a little 'white noise' to cover up the traffic sounds. This is my thirdt stay at this location and I recommend it.More</t>
   </si>
   <si>
+    <t>J W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r152841389-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1513,6 +1669,9 @@
     <t>Request hill side if the view of a busy freeway is not your thing.  Beware you need a car to go almost anywhere.  Housekeeping is polite and swift.Seems to have a large Asian clientle base.  Did not try the room services so no comments for that.  Not an easily accessible place if not driving.a better option amongs the accommondations in the region except maybe pacific palms resorts, but that's another tier.More</t>
   </si>
   <si>
+    <t>Happyhare06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r148190945-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1534,6 +1693,9 @@
     <t>Upon check in, I had to wait a little bit because I checked in late night and there were only one staff present. That was not an issue. He helped me with my reservation and also helped me with all my questions. He even passed my requests to the staff of next morning which I appreciated. Received an upgrade for being priority club member. The room was excellent.I have to give credit to the staffs. They were all very helpful. Even though the location is not that convenient but it's definitely on my return list.The freeway wasn't that noisy. However if you are sensitive to sound, ask for a room not facing the freeway.More</t>
   </si>
   <si>
+    <t>Nicholas N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r140650290-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1552,6 +1714,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Tw0fish1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r138476056-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1570,6 +1735,9 @@
     <t>Got a good price from Hotwire for $70/night. The hotel was nice from the appearance but the room is really in bad shape. The toilet doesn't work , water in sink and bath tub doesn't go down.I had to call maintenance to come and try to fix it. It was bad and the guy did the best he could, the toilet still take time to "flush" down...we had three people in the room,and I had to listen to the complains from other two friends...it was gross.Oh and the two beds are full size and not queen beds.If you have 3-4 people in that room, so it would be very crowded. And we killed a big spider.... Anyway, I could have extended the stay with the same room rate, but we just couldn't wait to leave.Anyway, stay away. It's an old property and it's poor maintained. The front desks were friendly, but I would not want to deal with the toilet problem during my vacation.More</t>
   </si>
   <si>
+    <t>Molepolole</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r137649942-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1594,6 +1762,9 @@
     <t>I had to stay at this hotel because I was doing business in an office on the other side of the road for a couple of days. But I would not choose to stay here for any other reason. Luckily, my room overlooked the car park rather than the very noisy freeway close by on the other side. The lobby, restaurant and public areas all need smartening up. I had dinner with my client on the terrace of the hotel restaurant on the first night. Big mistake. Our food was poor (a rubbery steak smothered in something unpleasant in my case), the place stank of cigarette smoke and the noise from the nearby freeway intruded. We went to a restaurant 10 minutes drive away for the second night. The choice and quality of food at breakfast was limited and poor respectively. Surely a hotel in California could have some decent fruit juices. The only bread available was some tasteless sliced stuff. I am really glad I was not paying for this hotel myself.More</t>
   </si>
   <si>
+    <t>leanneyuanli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r129489775-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1612,6 +1783,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>jdp890</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r127945614-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1633,6 +1807,9 @@
     <t>I accompanied my husband on business for 4 nights so I was in the room most of the time.  What a pleasant surprise this place was!  We had great food in the restaurant each night, lively atmosphere but comfortable, intimate seating and friendly service.  Breakfast was a full spread, not the sparse, instant type you usually expect.  The pool was heated and chocolate chip cookies were always sitting on the reception counterl;  daily newspapers waiting and coffee usually in the lobby.  The location was great:  if you are a walker simply follow the sidewalk up and around the office loop as it's scenic, clean and safe.  This is so close to good retail as well and the room was great:  comfortable king bed, friendly staff and great front desk help and enthusiasm.  Drawbacks:  no microwaves in the room and we were on highway side of hotel with constant traffic at the convergence of 2 interstates, so it was noisy.  We are country dwellers so we found this disturbing at first but then we got used to it and didn't bother us.  Would definitely stay here again.  Free Wi-Fi was offered as well.More</t>
   </si>
   <si>
+    <t>Cindy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r127675640-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1654,6 +1831,9 @@
     <t>We recently stayed at the Holiday Inn Diamond Bar.  The check-in process was seamless, the staff very courteous, responsive, helpful, and accomodating.  Smiling faces, always with a kind greeting upon entering and exiting the hotel.  The room was beautiful.  Fourth floor, non-smoking. In room coffee and tea maker. Based on the reviews, we requested a room on the hillside of the hotel. The air conditioner was not loud at all. The beds and pillows were so comfortable. There were several restaurants near the hotel such as In 'N Out, Chili's, Jack in the Box, Starbucks, McDonalds, Bob's Big Boy, etc. The hotel restaurant prices were between the $8-$12 range, very reasonable. Loved having the refrigerator in the room. The hotel lobby was very clean. There is a small convenience store in the lobby, but also an Albertson's grocery store and Target nearby, so it makes better sense to purchase snacks and drinks for your room.  Calvary Chapel Christian Church is 2 minutes away and St. Denis Catholic Church, 5 minutes away.  Freeways are easy-on and easy off. While at the lovely pool, or on the outside dining patio, you can hear the traffic, but that's the city.  Downtown L.A. is approx. 20 min. West Covina, 10 min., Santa Monica, 30 to 40 min. We loved everything about this hotel and will stay here again whenever we visit the L.A. area.More</t>
   </si>
   <si>
+    <t>FindHG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r125417402-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1672,6 +1852,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>GoletaMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r123749198-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1690,6 +1873,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>vacationtime_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r119168257-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1711,6 +1897,9 @@
     <t>My room faced the parking lot so I had no complaints about freeway noise.  However I was unpleasantly surprised to discover that the executive rooms are not as spacious as the pictures may lead to believe.  As it turns out I paid extra for a bigger TV set, not for a bigger room. To thier credit the info is on the on-line room description--unfortunately, I did not look closely enough at the other room descriptions at the time I booked to realize that the only difference between other rooms and the executive room was the size of the tv set.  Other than that my 3 night stay was very pleasant and comfortable.  The on-site restaurant was good and definitely a plus after a long work day.  My suggestion for improvement:  pls ask staff at the front desk to smile!More</t>
   </si>
   <si>
+    <t>roadwarrior5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r104503103-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1732,6 +1921,9 @@
     <t>I arrived at the hotel and checked in. Upon entering my room things looked good and I plugged in my andriod tablet to charge. I left it in the room on the desk the next day as I went to work. I returned to find the tablet on the flooor with a broken screen. THe tablet cost me 60,000 holidya points to get so I went and talked to the manager. WHile admiting his housekeeping staff commited the erroe the best he would do refund 30,000 points or give me a free night. Both these options were unacceptable. I asked for a replacement or full refund of the points. The manager refused so I contacted guest services. The manager told guest services his housekeeping staff di not break the unit and he would not offer a replacement or points.STAY AWAY FROM THIS HOTEL IF YOU DO NOT WANT TO GET ANYTHING BROKEN.More</t>
   </si>
   <si>
+    <t>KansasKukana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r79982613-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1750,6 +1942,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>Chris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r71135614-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1768,6 +1963,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>KYM123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r61261842-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1786,6 +1984,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>DevonianBusinessman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r37037048-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1807,6 +2008,9 @@
     <t>We stayed for one night after an 11 hour flight from London to Los Angeles Airport. It took around 45 minutes to drive to the Holiday Inn Diamond Bar which is located in a pleasant Eastern suburb of Greater Los Angeles.Most of the reviews are accurate. The Queen bed double room that we had was really nice and beautifully clean. Freeway noise was an issue however we turned up the air conditioning unit to drown this out which really worked and we slept well.The hotel facilities are good with a really pleasant pool area and fountain, just a shame that the freeway is so close by. Parking is no problem with lots of spaces near to the hotel entrance.The staff were very helpful and the buffet breakfast was filling and well cooked.We would stay here again as the standard of the hotel was excellent, the only downside is the freeway noise.More</t>
   </si>
   <si>
+    <t>Saracruise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r36132209-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1823,6 +2027,9 @@
   </si>
   <si>
     <t>July 2009</t>
+  </si>
+  <si>
+    <t>daleski007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r6809220-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -1847,6 +2054,9 @@
 Now the bad. When we first checked in, the desk clerk tried to tell us the rate was $30 per night more than I was told when I made the reservations. I had to produce the notes I took while making the reservations to convince the desk clerk to give us the lower rate. Also, my room appeared dated and worn. The wallpaper seems to have been printed in the 1970s. The metal...After my 3-night stay, I must admit I was less than impressed. The bad simply outweighed the good. If available, next time I'll stay at the Ayres just down the street (I've stayed there before and had no problems whatsoever).First the good. The beds were very comfortable and the pillow variety was great (six made of either down or fiber). Though the TV channels were limited (only about 25), they did contain HBO and three ESPN stations (no PBS though). Although there was no sleep timer for the TV, it shut off automatically after about an hour (annoying at first but tolerable after I got used to it -- I just turned the TV off during a commercial to reset the the auto timer). Also, while the shower stall was a bit small, it had a great shower head at a high height (I'm 6'2") with strong water pressure. Finally, the on-site restaurant was crowded and noisy but the food and service were both very good.Now the bad. When we first checked in, the desk clerk tried to tell us the rate was $30 per night more than I was told when I made the reservations. I had to produce the notes I took while making the reservations to convince the desk clerk to give us the lower rate. Also, my room appeared dated and worn. The wallpaper seems to have been printed in the 1970s. The metal door jambs for the bathroom were rusted and in need of painting. While my room did not face the freeway (and I really did not hear much of the freeway noise that others have complained about), the Kleig lights used to light the hotel's exterior at night were bright enough to allow me to read in my room with no other lights on. The clock radio kept making this static-type noise every 30-45 minutes even though the radio wasn't turned on and the alarm wasn't set. I finally had to unplug the clock radio to get it to stop and used my watch for time and my cell phone for an alarm. Finally, and yes this is a tad nitpicky, the hotel offered only a USA today in the morning (which showed up only once during my 3-night stay) rather than offering either a local newspaper or the USA today.The sign in the hotel's lobby read "Owned by Oak Creek LP / Operated by Brighten Management". If I worked for either of these companies, I'm not sure that I would admit it after staying here.More</t>
   </si>
   <si>
+    <t>skopi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r4956729-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1863,6 +2073,9 @@
   </si>
   <si>
     <t>I had the opportunity to stay here or the Ayres which is just down the street. I opted for Holiday Inn due to my Priority membership. I'd probably do it again but didn't like the hotel that much.As others have stated, the hotel is next to the highway and that highway is VERY loud (or the windows are very thin).  I do not like noise when I sleep and found it difficult to cope with it.There is no free breakfast like at the Ayres.  The Ayres also has a social hour with free appetizers from 5-7pm.There is free wireless internet at Holiday Inn while it is $5/day at the Ayres. (which is crazy).The staff was fine. Rooms were clean.  Mostly fast food places nearby.  Like I said, I'd probably use it again but that is more due to priority rewards and the internet thing.More</t>
+  </si>
+  <si>
+    <t>ZoomLady</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r4728004-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -1887,6 +2100,9 @@
 Another colleague stayed just up the street at the Ayers Suites and...I stayed two nights at this property while attending a business meeting at the South Coast AQMD.  I travelled with two colleagues who were also staying at this location.  Upon arrival, the hotel lobby was clean and inviting.  The staff were all right, but gave little to no information about breakfast, gym or pool ammenities.  Each of my colleagues and I had to request a room change at least once due to either traffic noise, smoky air (in a non-smoking room) or a window that wouldn't close.  This hotel is very close to the freeway and apparently does not have double-paned windows, so the traffic noise drones day and night without relief.  Also, it seems to be used for bus tour groups, which tend to be noisy groups of people who clog the lobby.  I ate breakfast at the hotel both days, ordering oatmeal and toast.  The first day my meal was presented nicely; the oatmeal bowl placed on a plate lined with a doily and a small cup of brown sugar.  But the second day I basically had a bowl layed in front of me and asked as an afterthought if I needed brown sugar.The rooms themselves are fairly modern, clean and average.  For me, the traffic noise was almost unbearable (and I am a heavy sleeper normally), even on the opposite side from the freeway.Another colleague stayed just up the street at the Ayers Suites and had nothing but good things to say about her stay.  Breakfast was included and cooked to order, the room was quiet and large -- all for about $10 more per night.  I will stay at the Ayers next time!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r3357293-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
   </si>
   <si>
@@ -1918,6 +2134,9 @@
   </si>
   <si>
     <t>The hotel Staff was the best I have seen in a long time. We checked in and were told about DB's Bar and grille the Restaurant on property. I had dinner there that night and Armando and Tanya were great and the food was the best I have had at a hotel. The hotel had just replaced the carpet and put in new bed spreads and the rooms were very clean. I will always stay at holiday in select when Im in the area</t>
+  </si>
+  <si>
+    <t>EarningsGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32296-d217247-r2484548-Holiday_Inn_Select_Diamond_Bar-Diamond_Bar_California.html</t>
@@ -2440,43 +2659,47 @@
       <c r="A2" t="n">
         <v>27389</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>191876</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2488,56 +2711,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27389</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>191877</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2549,56 +2776,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27389</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>191878</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2616,56 +2847,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27389</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>191879</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2681,56 +2916,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27389</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>191880</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2748,56 +2987,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27389</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>191881</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2815,47 +3058,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27389</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
@@ -2872,56 +3119,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27389</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>67442</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2939,56 +3190,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27389</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>124</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3000,56 +3255,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27389</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>191882</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3061,56 +3320,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27389</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>191883</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3128,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27389</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>100475</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3193,56 +3460,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27389</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>191884</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3254,56 +3525,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27389</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2798</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3315,56 +3590,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27389</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>191885</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3382,56 +3661,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27389</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>191886</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3447,56 +3730,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27389</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3514,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27389</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>191887</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3575,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="X19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27389</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>191888</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3640,56 +3935,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X20" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y20" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27389</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>191889</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3701,56 +4000,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="X21" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Y21" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27389</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>595</v>
+      </c>
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3768,56 +4071,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X22" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y22" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27389</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>9634</v>
+      </c>
+      <c r="C23" t="s">
+        <v>254</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O23" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3835,56 +4142,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="X23" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="Y23" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27389</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>191890</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3900,56 +4211,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="X24" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="Y24" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27389</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>191891</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="J25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3961,56 +4276,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="X25" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Y25" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27389</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>28430</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4022,56 +4341,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="X26" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="Y26" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27389</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>59751</v>
+      </c>
+      <c r="C27" t="s">
+        <v>294</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="J27" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K27" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L27" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4089,56 +4412,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="X27" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="Y27" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27389</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>191892</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K28" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L28" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="O28" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4154,56 +4481,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="X28" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="Y28" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27389</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>191893</v>
+      </c>
+      <c r="C29" t="s">
+        <v>314</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="O29" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4221,56 +4552,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="X29" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Y29" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27389</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>191894</v>
+      </c>
+      <c r="C30" t="s">
+        <v>324</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="K30" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4288,56 +4623,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="X30" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Y30" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27389</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>191895</v>
+      </c>
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="J31" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="K31" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="L31" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4353,56 +4692,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Y31" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27389</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>191896</v>
+      </c>
+      <c r="C32" t="s">
+        <v>340</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4420,56 +4763,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X32" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y32" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27389</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>191897</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="J33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="K33" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="L33" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4485,56 +4832,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="X33" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="Y33" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27389</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>191880</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="J34" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="K34" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="L34" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4552,56 +4903,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="X34" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="Y34" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27389</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>191898</v>
+      </c>
+      <c r="C35" t="s">
+        <v>368</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="L35" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="O35" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4613,47 +4968,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="X35" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="Y35" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27389</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>191899</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="L36" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4680,56 +5039,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="X36" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="Y36" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27389</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>191900</v>
+      </c>
+      <c r="C37" t="s">
+        <v>385</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="J37" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="K37" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="L37" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4741,56 +5104,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27389</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>191901</v>
+      </c>
+      <c r="C38" t="s">
+        <v>392</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="L38" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4808,56 +5175,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="X38" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27389</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>191902</v>
+      </c>
+      <c r="C39" t="s">
+        <v>402</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4869,56 +5240,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="X39" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27389</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>191903</v>
+      </c>
+      <c r="C40" t="s">
+        <v>411</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="J40" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="K40" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="L40" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="O40" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4934,56 +5309,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="X40" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="Y40" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27389</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>191904</v>
+      </c>
+      <c r="C41" t="s">
+        <v>421</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="L41" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5001,56 +5380,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="X41" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="Y41" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27389</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>100494</v>
+      </c>
+      <c r="C42" t="s">
+        <v>431</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="J42" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="K42" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="L42" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5070,50 +5453,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27389</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>18580</v>
+      </c>
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="J43" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="L43" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5131,56 +5518,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="X43" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="Y43" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27389</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>191905</v>
+      </c>
+      <c r="C44" t="s">
+        <v>446</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5204,50 +5595,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27389</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>28725</v>
+      </c>
+      <c r="C45" t="s">
+        <v>453</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="J45" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="K45" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="L45" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5269,56 +5664,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="X45" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="Y45" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27389</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>25715</v>
+      </c>
+      <c r="C46" t="s">
+        <v>463</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="K46" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5340,56 +5739,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="X46" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="Y46" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27389</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C47" t="s">
+        <v>473</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="J47" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="K47" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="L47" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="O47" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5411,56 +5814,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="X47" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27389</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>191906</v>
+      </c>
+      <c r="C48" t="s">
+        <v>480</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="J48" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="K48" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="L48" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5482,56 +5889,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="X48" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="Y48" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27389</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>191907</v>
+      </c>
+      <c r="C49" t="s">
+        <v>489</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="J49" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="K49" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="L49" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="O49" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5553,56 +5964,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="X49" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="Y49" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27389</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>191908</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="J50" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="K50" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="L50" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="O50" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5614,56 +6029,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="X50" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="Y50" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27389</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>13433</v>
+      </c>
+      <c r="C51" t="s">
+        <v>509</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="J51" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="K51" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="L51" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5687,50 +6106,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27389</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>191909</v>
+      </c>
+      <c r="C52" t="s">
+        <v>517</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="J52" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K52" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="L52" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5754,50 +6177,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27389</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>191910</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="J53" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="K53" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="L53" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5819,56 +6246,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="X53" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="Y53" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27389</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>533</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="J54" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="K54" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="L54" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5890,56 +6321,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="X54" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27389</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>191911</v>
+      </c>
+      <c r="C55" t="s">
+        <v>543</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="J55" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="K55" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="L55" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5961,56 +6396,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="X55" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="Y55" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27389</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>191912</v>
+      </c>
+      <c r="C56" t="s">
+        <v>551</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="J56" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="K56" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="L56" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="O56" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6034,50 +6473,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27389</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124806</v>
+      </c>
+      <c r="C57" t="s">
+        <v>558</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="J57" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="K57" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="L57" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O57" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6101,50 +6544,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27389</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>191913</v>
+      </c>
+      <c r="C58" t="s">
+        <v>565</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="J58" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="K58" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="L58" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6166,56 +6613,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="X58" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="Y58" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27389</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>191914</v>
+      </c>
+      <c r="C59" t="s">
+        <v>574</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="J59" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="K59" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="L59" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6239,50 +6690,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27389</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>191915</v>
+      </c>
+      <c r="C60" t="s">
+        <v>581</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="J60" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="K60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="L60" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6306,50 +6761,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27389</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>17545</v>
+      </c>
+      <c r="C61" t="s">
+        <v>589</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="J61" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="K61" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="L61" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6373,50 +6832,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27389</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>191916</v>
+      </c>
+      <c r="C62" t="s">
+        <v>597</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="J62" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K62" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="L62" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="O62" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6440,50 +6903,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27389</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>191917</v>
+      </c>
+      <c r="C63" t="s">
+        <v>604</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="J63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="K63" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="L63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6507,50 +6974,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27389</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>191918</v>
+      </c>
+      <c r="C64" t="s">
+        <v>611</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="J64" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="K64" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="L64" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6574,50 +7045,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27389</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>191919</v>
+      </c>
+      <c r="C65" t="s">
+        <v>619</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="J65" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="K65" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="L65" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6631,50 +7106,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27389</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>191920</v>
+      </c>
+      <c r="C66" t="s">
+        <v>627</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="J66" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="K66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="L66" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="O66" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6698,50 +7177,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27389</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>578</v>
+      </c>
+      <c r="C67" t="s">
+        <v>634</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="J67" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="K67" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="L67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6765,50 +7248,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27389</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>191921</v>
+      </c>
+      <c r="C68" t="s">
+        <v>641</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="J68" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="K68" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="L68" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="O68" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6832,50 +7319,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27389</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>191922</v>
+      </c>
+      <c r="C69" t="s">
+        <v>648</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="J69" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="K69" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="L69" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="O69" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6899,50 +7390,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27389</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>191923</v>
+      </c>
+      <c r="C70" t="s">
+        <v>656</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="J70" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="K70" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="L70" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="O70" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6966,41 +7461,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>27389</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>191924</v>
+      </c>
+      <c r="C71" t="s">
+        <v>663</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="J71" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="K71" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="L71" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -7019,41 +7518,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>27389</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>191925</v>
+      </c>
+      <c r="C72" t="s">
+        <v>670</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="J72" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="K72" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="L72" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
@@ -7072,41 +7575,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>27389</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>191926</v>
+      </c>
+      <c r="C73" t="s">
+        <v>677</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="J73" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="K73" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="L73" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
@@ -7125,50 +7632,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>27389</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>684</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="J74" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="K74" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="L74" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7190,41 +7701,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>27389</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>684</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="J75" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="K75" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="L75" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
@@ -7243,41 +7758,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>27389</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>191927</v>
+      </c>
+      <c r="C76" t="s">
+        <v>696</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="J76" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="K76" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="L76" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
@@ -7296,7 +7815,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
